--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F54B665-18B5-4BF9-B64A-B3550AE783B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF845D53-30CA-41CF-95BD-A15655BE3F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2270" yWindow="2060" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -203,16 +203,6 @@
   </si>
   <si>
     <t>FS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン状態</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1171,6 +1161,48 @@
     <rPh sb="130" eb="132">
       <t>オウカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・UC017【担当者ログイン】が終了している
+・UC001【商品検索】で商品の一覧が表示され、指定の商品の「変更」ボタンが押される</t>
+    <rPh sb="7" eb="10">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1459,7 +1491,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,6 +1550,111 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1527,21 +1664,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1551,101 +1673,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1999,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:L27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2016,25 +2051,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2049,23 +2084,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2077,49 +2112,51 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:17" ht="25" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2128,20 +2165,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2151,16 +2188,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2171,7 +2208,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2187,7 +2224,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2233,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2213,91 +2250,91 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="11">
-      <c r="A9" s="56">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="35" customHeight="1">
-      <c r="A10" s="57"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2305,21 +2342,21 @@
       <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A12" s="61">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -2332,22 +2369,22 @@
       <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="23" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -2358,18 +2395,18 @@
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>35</v>
+      <c r="B14" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -2385,16 +2422,16 @@
       <c r="A15" s="6">
         <v>8</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -2410,16 +2447,16 @@
       <c r="A16" s="6">
         <v>9</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -2428,23 +2465,23 @@
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" spans="1:17" ht="68" customHeight="1">
       <c r="A17" s="6">
         <v>7</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -2460,16 +2497,16 @@
       <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2485,16 +2522,16 @@
       <c r="A19" s="6">
         <v>9</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -2503,23 +2540,23 @@
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="1:17" ht="71" customHeight="1">
       <c r="A20" s="6">
         <v>10</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2535,16 +2572,16 @@
       <c r="A21" s="6">
         <v>7</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2560,16 +2597,16 @@
       <c r="A22" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -2585,16 +2622,16 @@
       <c r="A23" s="6">
         <v>9</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2603,23 +2640,23 @@
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" ht="68" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -2635,16 +2672,16 @@
       <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2660,18 +2697,18 @@
       <c r="A26" s="6">
         <v>9</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -2680,28 +2717,28 @@
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="27"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51"/>
     </row>
     <row r="27" spans="1:17" ht="91.5" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="H27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2712,21 +2749,21 @@
       <c r="A28" s="6">
         <v>10</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="H28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2754,39 +2791,29 @@
     <row r="35" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2803,38 +2830,48 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H20:L20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF845D53-30CA-41CF-95BD-A15655BE3F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A609CFF-7923-4CFA-97EF-C537FC3D95BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2270" yWindow="2060" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>作成者</t>
   </si>
@@ -191,13 +191,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>古市</t>
-    <rPh sb="0" eb="2">
-      <t>フルイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -794,45 +787,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：123456789012345678901
-単価：29円
-在庫数：10
-商品カテゴリ：文房具
-画像：black_pen_w.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラーメッセージ
 「商品名は、5～20文字で入力してください」
 が出力される</t>
@@ -1064,12 +1018,160 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>SQLインジェクションが発生しない</t>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XSSが発生しない</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・UC017【担当者ログイン】が終了している
+・UC001【商品検索】で商品の一覧が表示され、指定の商品の「変更」ボタンが押される</t>
+    <rPh sb="7" eb="10">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山崎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：10001円
+在庫数：150
+商品カテゴリ：雑貨
+画像：umbrella.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLインジェクションの確認
+商品名：UNION SELECT id,password FROM employee_account - -
+単価：2500円
+在庫数：100
+商品カテゴリ：文房具
+画像：black_pen_w.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>XSSの確認
 商品名：”&lt;script&gt; alert(document.cookie)&lt;/script&gt;”
 単価：2500円
 在庫数：100
 商品カテゴリ：文房具
-画像：black_pen_w.txt
+画像：black_pen_w.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="4" eb="6">
       <t>カクニン</t>
@@ -1107,102 +1209,134 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQLインジェクションが発生しない</t>
+    <t>商品名：123456789012345678901
+単価：100円
+在庫数：10
+商品カテゴリ：文房具
+画像：black_pen_w.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
     <rPh sb="12" eb="14">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>XSSが発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQLインジェクションの確認
-商品名：UNION SELECT id,password FROM employee_account - -
-単価：2500円
-在庫数：100
-商品カテゴリ：文房具
-画像：black_pen_w.txt
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品修正（確認）画面へ遷移</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="15" eb="18">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="94" eb="97">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・UC017【担当者ログイン】が終了している
-・UC001【商品検索】で商品の一覧が表示され、指定の商品の「変更」ボタンが押される</t>
-    <rPh sb="7" eb="10">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1491,7 +1625,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1544,20 +1678,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1565,122 +1765,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2032,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+      <selection activeCell="H18" sqref="H18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2051,56 +2182,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2113,50 +2244,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2165,20 +2296,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2188,153 +2319,153 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="90.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="C8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="11">
-      <c r="A9" s="29">
+      <c r="A9" s="61">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="35" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2342,478 +2473,641 @@
       <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A12" s="31">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="68" customHeight="1">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="1:17" ht="69" customHeight="1">
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" ht="69.5" customHeight="1">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A16" s="17">
+        <v>10</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="1:17" ht="68" customHeight="1">
-      <c r="A17" s="6">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A17" s="18">
+        <v>11</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" ht="69" customHeight="1">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" ht="68" customHeight="1">
       <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" spans="1:17" ht="69" customHeight="1">
       <c r="A19" s="6">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-    </row>
-    <row r="20" spans="1:17" ht="71" customHeight="1">
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="1:17" ht="69.5" customHeight="1">
       <c r="A20" s="6">
-        <v>10</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" ht="68" customHeight="1">
       <c r="A21" s="6">
-        <v>7</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="69" customHeight="1">
       <c r="A22" s="6">
-        <v>8</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:17" ht="69" customHeight="1">
       <c r="A23" s="6">
-        <v>9</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="51"/>
-    </row>
-    <row r="24" spans="1:17" ht="68" customHeight="1">
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+    </row>
+    <row r="24" spans="1:17" ht="69.5" customHeight="1">
       <c r="A24" s="6">
-        <v>7</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" ht="69" customHeight="1">
+      <c r="Q24" s="20"/>
+    </row>
+    <row r="25" spans="1:17" ht="71" customHeight="1">
       <c r="A25" s="6">
-        <v>8</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="68" customHeight="1">
       <c r="A26" s="6">
-        <v>9</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="51"/>
-    </row>
-    <row r="27" spans="1:17" ht="91.5" customHeight="1">
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:17" ht="69" customHeight="1">
       <c r="A27" s="6">
-        <v>10</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="1:17" ht="90.5" customHeight="1">
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:17" ht="69.5" customHeight="1">
       <c r="A28" s="6">
-        <v>10</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="11">
-      <c r="B30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="34" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="35" s="4" customFormat="1" ht="11.25" customHeight="1"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="20"/>
+    </row>
+    <row r="29" spans="1:17" ht="68" customHeight="1">
+      <c r="A29" s="6">
+        <v>18</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="1:17" ht="69" customHeight="1">
+      <c r="A30" s="6">
+        <v>19</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="1:17" ht="69.5" customHeight="1">
+      <c r="A31" s="6">
+        <v>20</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="1:17" ht="91.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>21</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="90.5" customHeight="1">
+      <c r="A33" s="6">
+        <v>22</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" ht="11">
+      <c r="B35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H16:L16"/>
+  <mergeCells count="95">
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2830,48 +3124,35 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A609CFF-7923-4CFA-97EF-C537FC3D95BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8762241-5547-4307-B861-AF23A03FF0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>作成者</t>
   </si>
@@ -1025,13 +1025,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>XSSが発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・UC017【担当者ログイン】が終了している
 ・UC001【商品検索】で商品の一覧が表示され、指定の商品の「変更」ボタンが押される</t>
     <rPh sb="7" eb="10">
@@ -1123,8 +1116,148 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品修正（確認）画面へ遷移</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名のスクリプトタグが文字として認識され、
+XSSが発生しない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XSSの確認
+商品名：”&lt;script&gt;&lt;/script&gt;”
+単価：2500円
+在庫数：100
+商品カテゴリ：文房具
+画像：black_pen_w.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>SQLインジェクションの確認
-商品名：UNION SELECT id,password FROM employee_account - -
+商品名：' OR '1'='1
 単価：2500円
 在庫数：100
 商品カテゴリ：文房具
@@ -1136,74 +1269,31 @@
     <rPh sb="15" eb="18">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="31" eb="33">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="77" eb="78">
+    <rPh sb="38" eb="39">
       <t>エン</t>
     </rPh>
-    <rPh sb="79" eb="82">
+    <rPh sb="40" eb="43">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="87" eb="89">
+    <rPh sb="48" eb="50">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="94" eb="97">
+    <rPh sb="55" eb="58">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="98" eb="100">
+    <rPh sb="59" eb="61">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="118" eb="120">
+    <rPh sb="79" eb="81">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="123" eb="125">
+    <rPh sb="84" eb="86">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="130" eb="132">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>XSSの確認
-商品名：”&lt;script&gt; alert(document.cookie)&lt;/script&gt;”
-単価：2500円
-在庫数：100
-商品カテゴリ：文房具
-画像：black_pen_w.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="91" eb="93">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1218,124 +1308,74 @@
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="18" eb="20">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="24" eb="25">
       <t>エン</t>
     </rPh>
-    <rPh sb="34" eb="37">
+    <rPh sb="26" eb="29">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="33" eb="35">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="48" eb="51">
+    <rPh sb="40" eb="43">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="44" eb="46">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="64" eb="66">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="77" eb="79">
+    <rPh sb="69" eb="71">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="84" eb="86">
+    <rPh sb="76" eb="78">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品情報メンテナンス」リンクを押下</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <t>商品名：消しゴム
+単価：100円
+在庫数：10
+商品カテゴリ：文房具
+画像：black_pen_w.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ登録」リンクを押下</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ登録(入力)画面へ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アカウント登録」リンクを押下</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録(入力)画面へ遷移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログアウト」ボタンを押下</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品修正（確認）画面へ遷移</t>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1681,12 +1721,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1704,114 +1852,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2163,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:L18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2182,30 +2222,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -2215,23 +2255,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2244,50 +2284,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="1:17" ht="14" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2296,20 +2336,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2319,153 +2359,153 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="90.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="11">
-      <c r="A9" s="61">
+      <c r="A9" s="32">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="27" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="1:17" ht="35" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="27" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2476,148 +2516,148 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+      <c r="C12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="17">
         <v>10</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="18">
         <v>11</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="35" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2628,198 +2668,198 @@
       <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="69" customHeight="1">
       <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="69.5" customHeight="1">
       <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="30" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="68" customHeight="1">
       <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="69" customHeight="1">
       <c r="A22" s="6">
         <v>11</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="69" customHeight="1">
       <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="69.5" customHeight="1">
       <c r="A24" s="6">
         <v>13</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="71" customHeight="1">
       <c r="A25" s="6">
         <v>14</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2830,213 +2870,234 @@
       <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="30" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="69" customHeight="1">
       <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="30" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
-        <v>17</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" spans="1:17" ht="68" customHeight="1">
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="69.5" customHeight="1">
       <c r="A29" s="6">
-        <v>18</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" ht="69" customHeight="1">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:17" ht="68" customHeight="1">
       <c r="A30" s="6">
-        <v>19</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="69" customHeight="1">
       <c r="A31" s="6">
-        <v>20</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="20"/>
-    </row>
-    <row r="32" spans="1:17" ht="91.5" customHeight="1">
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" ht="69.5" customHeight="1">
       <c r="A32" s="6">
-        <v>21</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="90.5" customHeight="1">
+      <c r="P32" s="27"/>
+      <c r="Q32" s="28"/>
+    </row>
+    <row r="33" spans="1:17" ht="91.5" customHeight="1">
       <c r="A33" s="6">
-        <v>22</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="11">
+    <row r="34" spans="1:17" ht="90.5" customHeight="1">
+      <c r="A34" s="6">
+        <v>22</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="B35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:17" ht="11.25" customHeight="1">
+    <row r="36" spans="1:17" ht="11">
       <c r="B36" s="4"/>
       <c r="G36" s="4"/>
     </row>
@@ -3056,58 +3117,44 @@
       <c r="B40" s="4"/>
       <c r="G40" s="4"/>
     </row>
+    <row r="41" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
+  <mergeCells count="98">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3124,35 +3171,56 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA92B0F2-DD80-4063-B30F-3862E8EF9656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA34B1-3239-461E-8029-25578CE3E8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -2477,16 +2477,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateproduct/input」
-を入力</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateproduct/input」
-を入力</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SQLインジェクション
 各テキスト欄に「' OR '1'='1」を入力</t>
     <phoneticPr fontId="2"/>
@@ -2501,6 +2491,16 @@
     <rPh sb="10" eb="11">
       <t>ラン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/updateproduct/input」
+を入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/updateproduct/input」
+を入力</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2807,7 +2807,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2866,17 +2866,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2887,6 +2929,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2896,32 +2947,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2930,97 +3002,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3374,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3391,25 +3388,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3424,23 +3421,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3453,50 +3450,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3505,20 +3502,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3528,82 +3525,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="30" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -3615,18 +3612,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3638,18 +3635,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="30" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3661,18 +3658,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3684,18 +3681,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="30" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3707,18 +3704,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3730,20 +3727,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="30" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3755,18 +3752,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="30" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3778,18 +3775,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="30" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3801,18 +3798,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3824,18 +3821,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="30" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3847,18 +3844,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3870,18 +3867,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3893,430 +3890,430 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="79.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
         <v>21</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="20" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="23"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="20" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
         <v>22</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="20" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="20" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -4325,23 +4322,23 @@
     </row>
     <row r="38" spans="1:17" ht="86" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="20" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -4350,23 +4347,23 @@
     </row>
     <row r="39" spans="1:17" ht="86" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="20" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -4377,258 +4374,258 @@
       <c r="A40" s="6">
         <v>23</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="20" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="23"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
         <v>24</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="20" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
         <v>25</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="20" t="s">
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="20" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="23"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="27"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="20" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="23"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="27"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="20" t="s">
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="1:17" ht="69" customHeight="1">
       <c r="A46" s="6">
         <v>26</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="20" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
     </row>
     <row r="47" spans="1:17" ht="68" customHeight="1">
       <c r="A47" s="6">
         <v>27</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="30" t="s">
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="37"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="36"/>
-      <c r="Q47" s="38"/>
+      <c r="Q47" s="37"/>
     </row>
     <row r="48" spans="1:17" ht="69" customHeight="1">
       <c r="A48" s="6">
         <v>28</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="20" t="s">
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="36"/>
-      <c r="Q48" s="38"/>
+      <c r="Q48" s="37"/>
     </row>
     <row r="49" spans="1:17" ht="69" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="20" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -4639,48 +4636,48 @@
       <c r="A50" s="6">
         <v>29</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="20" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="36"/>
-      <c r="Q50" s="38"/>
+      <c r="Q50" s="37"/>
     </row>
     <row r="51" spans="1:17" ht="69" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="20" t="s">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -4689,23 +4686,23 @@
     </row>
     <row r="52" spans="1:17" ht="69" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="20" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -4716,129 +4713,129 @@
       <c r="A53" s="6">
         <v>30</v>
       </c>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="20" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
         <v>31</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="20" t="s">
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
         <v>32</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="20" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
         <v>33</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="20" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="23"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="27"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="20" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -4847,23 +4844,23 @@
     </row>
     <row r="58" spans="1:17" ht="93.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="20" t="s">
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -4872,23 +4869,23 @@
     </row>
     <row r="59" spans="1:17" ht="82.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="20" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -4897,23 +4894,23 @@
     </row>
     <row r="60" spans="1:17" ht="82.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="20" t="s">
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -4924,233 +4921,233 @@
       <c r="A61" s="6">
         <v>34</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="30" t="s">
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="32"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
       <c r="P61" s="36"/>
-      <c r="Q61" s="38"/>
+      <c r="Q61" s="37"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
         <v>35</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="30" t="s">
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="32"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="38"/>
+      <c r="Q62" s="37"/>
     </row>
     <row r="63" spans="1:17" ht="69" customHeight="1">
       <c r="A63" s="6">
         <v>36</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="30" t="s">
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="32"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
       <c r="P63" s="36"/>
-      <c r="Q63" s="38"/>
+      <c r="Q63" s="37"/>
     </row>
     <row r="64" spans="1:17" ht="68" customHeight="1">
       <c r="A64" s="6">
         <v>37</v>
       </c>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="20" t="s">
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
     </row>
     <row r="65" spans="1:17" ht="69" customHeight="1">
       <c r="A65" s="6">
         <v>38</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="20" t="s">
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
         <v>39</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="21" t="s">
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
         <v>40</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="30" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="21" t="s">
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>41</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="30" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="21" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>42</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="30" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="21" t="s">
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -5161,121 +5158,121 @@
       <c r="A70" s="6">
         <v>43</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="20" t="s">
+      <c r="B70" s="49"/>
+      <c r="C70" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21" t="s">
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="23"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="27"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>44</v>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="20" t="s">
+      <c r="B71" s="49"/>
+      <c r="C71" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21" t="s">
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>45</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="30" t="s">
+      <c r="B72" s="50"/>
+      <c r="C72" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="32"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="30"/>
       <c r="H72" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="38"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="37"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="23"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="27"/>
     </row>
     <row r="73" spans="1:17" ht="69.5" customHeight="1">
       <c r="A73" s="6">
         <v>46</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="20" t="s">
+      <c r="C73" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="23"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="27"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="20" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
@@ -5286,21 +5283,21 @@
       <c r="A75" s="6">
         <v>47</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="30" t="s">
+      <c r="B75" s="49"/>
+      <c r="C75" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="32"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="30"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -5311,21 +5308,21 @@
       <c r="A76" s="6">
         <v>48</v>
       </c>
-      <c r="B76" s="61"/>
-      <c r="C76" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="30" t="s">
+      <c r="B76" s="50"/>
+      <c r="C76" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="32"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -5353,16 +5350,162 @@
     <row r="83" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="H74:L74"/>
     <mergeCell ref="P43:Q43"/>
@@ -5387,162 +5530,16 @@
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA34B1-3239-461E-8029-25578CE3E8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66EDF33-91EC-4E03-A0E5-0CFBF74BAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
   <si>
     <t>作成者</t>
   </si>
@@ -747,140 +747,6 @@
     <t>（正常系）</t>
     <rPh sb="1" eb="4">
       <t>セイジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「雑貨カテゴリの価格は、100～10002円で入力してください」
-が出力される</t>
-    <rPh sb="10" eb="12">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「雑貨カテゴリの価格は、100～10003円で入力してください」
-が出力される</t>
-    <rPh sb="10" eb="12">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力内容確認（商品カテゴリ）
-（正常系）</t>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：10000円
-在庫数：150
-商品カテゴリ：雑貨
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：10000円
-在庫数：150
-商品カテゴリ：文房具
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2890,6 +2756,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2899,8 +2771,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2911,22 +2795,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2938,6 +2873,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2946,78 +2884,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3369,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:G74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3388,25 +3254,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3421,23 +3287,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3450,50 +3316,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3502,20 +3368,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="68" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3525,82 +3391,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="C8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -3612,18 +3478,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3635,18 +3501,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3658,18 +3524,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3681,18 +3547,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3704,18 +3570,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3727,20 +3593,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3752,18 +3618,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3775,18 +3641,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3798,18 +3664,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3826,13 +3692,13 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="37"/>
+      <c r="H18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3849,13 +3715,13 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="37"/>
+      <c r="H19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3872,13 +3738,13 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="37"/>
+      <c r="H20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3890,20 +3756,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="28" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3917,20 +3783,20 @@
       <c r="B22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="C22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3944,20 +3810,20 @@
       <c r="B23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="C23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -3966,25 +3832,25 @@
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="31" t="s">
+      <c r="C24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3992,24 +3858,26 @@
       <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
       <c r="B25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="31" t="s">
+      <c r="C25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -4017,24 +3885,26 @@
       <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="79.5" customHeight="1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
       <c r="B26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="31" t="s">
+      <c r="C26" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -4042,24 +3912,26 @@
       <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
       <c r="B27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31" t="s">
+      <c r="C27" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -4067,24 +3939,26 @@
       <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
       <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="31" t="s">
+      <c r="C28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -4092,24 +3966,26 @@
       <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
       <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="C29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -4118,100 +3994,106 @@
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
+      <c r="C30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
       <c r="B31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35" t="s">
+      <c r="C31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
-      <c r="A32" s="16"/>
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
       <c r="B32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35" t="s">
+      <c r="C32" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
       <c r="B33" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35" t="s">
+      <c r="C33" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -4219,24 +4101,26 @@
       <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
       <c r="B34" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="C34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -4244,24 +4128,26 @@
       <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
       <c r="B35" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -4270,50 +4156,52 @@
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="31" t="s">
+      <c r="C36" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
       <c r="B37" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="31" t="s">
+      <c r="C37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -4321,24 +4209,26 @@
       <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="1:17" ht="86" customHeight="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
       <c r="B38" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="31" t="s">
+      <c r="C38" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -4346,24 +4236,26 @@
       <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="1:17" ht="86" customHeight="1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
       <c r="B39" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="31" t="s">
+      <c r="C39" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -4372,25 +4264,25 @@
     </row>
     <row r="40" spans="1:17" ht="84.5" customHeight="1">
       <c r="A40" s="6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="31" t="s">
+      <c r="C40" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -4399,77 +4291,79 @@
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="31" t="s">
+      <c r="C42" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
       <c r="B43" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="31" t="s">
+      <c r="C43" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -4477,24 +4371,26 @@
       <c r="Q43" s="27"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6">
+        <v>39</v>
+      </c>
       <c r="B44" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="31" t="s">
+      <c r="C44" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -4502,24 +4398,26 @@
       <c r="Q44" s="27"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6">
+        <v>40</v>
+      </c>
       <c r="B45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="31" t="s">
+      <c r="C45" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -4528,104 +4426,106 @@
     </row>
     <row r="46" spans="1:17" ht="69" customHeight="1">
       <c r="A46" s="6">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="31" t="s">
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17" ht="68" customHeight="1">
       <c r="A47" s="6">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="37"/>
+        <v>111</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="37"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="34"/>
     </row>
     <row r="48" spans="1:17" ht="69" customHeight="1">
       <c r="A48" s="6">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="37"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="34"/>
     </row>
     <row r="49" spans="1:17" ht="69" customHeight="1">
-      <c r="A49" s="6"/>
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
       <c r="B49" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31" t="s">
+      <c r="C49" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -4634,50 +4534,52 @@
     </row>
     <row r="50" spans="1:17" ht="69" customHeight="1">
       <c r="A50" s="6">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31" t="s">
+      <c r="C50" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="37"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="34"/>
     </row>
     <row r="51" spans="1:17" ht="69" customHeight="1">
-      <c r="A51" s="6"/>
+      <c r="A51" s="6">
+        <v>46</v>
+      </c>
       <c r="B51" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31" t="s">
+      <c r="C51" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -4685,24 +4587,26 @@
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:17" ht="69" customHeight="1">
-      <c r="A52" s="6"/>
+      <c r="A52" s="6">
+        <v>47</v>
+      </c>
       <c r="B52" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
+      <c r="C52" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -4711,106 +4615,106 @@
     </row>
     <row r="53" spans="1:17" ht="81.5" customHeight="1">
       <c r="A53" s="6">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="31" t="s">
+      <c r="C53" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="31" t="s">
+      <c r="C54" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="31" t="s">
+      <c r="C55" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="31" t="s">
+      <c r="C56" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -4818,24 +4722,26 @@
       <c r="Q56" s="27"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A57" s="6"/>
+      <c r="A57" s="6">
+        <v>52</v>
+      </c>
       <c r="B57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
+      <c r="C57" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -4843,24 +4749,26 @@
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="1:17" ht="93.5" customHeight="1">
-      <c r="A58" s="6"/>
+      <c r="A58" s="6">
+        <v>53</v>
+      </c>
       <c r="B58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="31" t="s">
+      <c r="C58" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -4868,24 +4776,26 @@
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A59" s="6"/>
+      <c r="A59" s="6">
+        <v>54</v>
+      </c>
       <c r="B59" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
+      <c r="C59" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -4893,447 +4803,382 @@
       <c r="Q59" s="17"/>
     </row>
     <row r="60" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="6">
+        <v>55</v>
+      </c>
       <c r="B60" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
+      <c r="C60" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:17" ht="69" customHeight="1">
+    <row r="61" spans="1:17" ht="68" customHeight="1">
       <c r="A61" s="6">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
-      <c r="G61" s="30"/>
+      <c r="G61" s="29"/>
       <c r="H61" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="37"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
-      <c r="G62" s="30"/>
+      <c r="G62" s="29"/>
       <c r="H62" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="37"/>
-    </row>
-    <row r="63" spans="1:17" ht="69" customHeight="1">
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
-        <v>36</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
+      <c r="L63" s="29"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="37"/>
-    </row>
-    <row r="64" spans="1:17" ht="68" customHeight="1">
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
-        <v>37</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="44"/>
+      <c r="C64" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-    </row>
-    <row r="65" spans="1:17" ht="69" customHeight="1">
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
-        <v>38</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
-        <v>39</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="44"/>
+      <c r="C66" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="19"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
-        <v>40</v>
-      </c>
-      <c r="B67" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="44"/>
       <c r="C67" s="28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="27"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
-        <v>41</v>
-      </c>
-      <c r="B68" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="44"/>
       <c r="C68" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
-        <v>42</v>
-      </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="63"/>
+      <c r="C69" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="34"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="19"/>
-    </row>
-    <row r="70" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P69" s="26"/>
+      <c r="Q69" s="27"/>
+    </row>
+    <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
-        <v>43</v>
-      </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="P70" s="26"/>
       <c r="Q70" s="27"/>
     </row>
-    <row r="71" spans="1:17" ht="13.5" customHeight="1">
+    <row r="71" spans="1:17" ht="69.5" customHeight="1">
       <c r="A71" s="6">
-        <v>44</v>
-      </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="44"/>
+      <c r="C71" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-    </row>
-    <row r="72" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P71" s="16"/>
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="1:17" ht="91.5" customHeight="1">
       <c r="A72" s="6">
-        <v>45</v>
-      </c>
-      <c r="B72" s="50"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="44"/>
       <c r="C72" s="28" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="37"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="32"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="27"/>
-    </row>
-    <row r="73" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P72" s="16"/>
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="1:17" ht="90.5" customHeight="1">
       <c r="A73" s="6">
-        <v>46</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="31" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="B73" s="63"/>
+      <c r="C73" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="I73" s="31"/>
       <c r="J73" s="31"/>
       <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
+      <c r="L73" s="32"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="27"/>
-    </row>
-    <row r="74" spans="1:17" ht="69.5" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="17"/>
-    </row>
-    <row r="75" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A75" s="6">
-        <v>47</v>
-      </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="17"/>
-    </row>
-    <row r="76" spans="1:17" ht="90.5" customHeight="1">
-      <c r="A76" s="6">
-        <v>48</v>
-      </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="17"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" ht="11">
+      <c r="B75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:17" ht="11.25" customHeight="1">
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:17" ht="11">
+    <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
     </row>
@@ -5345,97 +5190,72 @@
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="82" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="83" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
+  <mergeCells count="181">
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="C23:G23"/>
@@ -5459,87 +5279,100 @@
     <mergeCell ref="P55:Q55"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:L61"/>
     <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66EDF33-91EC-4E03-A0E5-0CFBF74BAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD38E01-D77C-41B1-AC29-88063DCDA65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,48 +451,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：10001円
-在庫数：150
-商品カテゴリ：雑貨
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -1168,24 +1126,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーメッセージ
-「この商品の単価は0～9999999999で入力してください」
-と表示されること</t>
-    <rPh sb="12" eb="14">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力内容確認（単価・文房具）
 （正常系）</t>
     <rPh sb="0" eb="2">
@@ -1267,96 +1207,6 @@
   </si>
   <si>
     <t>商品名：水性ボールペン（黒）
-単価：9999999998
-在庫数：12
-商品カテゴリ：スポーツ用品
-画像：black_pen_w.jpg
-（単価が9999999998のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：水性ボールペン（黒）
-単価：9999999999
-在庫数：12
-商品カテゴリ：スポーツ用品
-画像：black_pen_w.jpg
-（単価が9999999999のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：水性ボールペン（黒）
-単価：10000000000
-在庫数：12
-商品カテゴリ：スポーツ用品
-画像：black_pen_w.jpg
-（単価が10000000000のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：水性ボールペン（黒）
 単価：29円
 在庫数：9
 商品カテゴリ：文房具
@@ -1778,10 +1628,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(単価、パソコン周辺機器)
 （正常系）</t>
     <rPh sb="1" eb="3">
@@ -1792,240 +1638,6 @@
     </rPh>
     <rPh sb="15" eb="18">
       <t>セイジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：299円
-在庫数：150
-商品カテゴリ：パソコン周辺機器
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：300円
-在庫数：150
-商品カテゴリ：パソコン周辺機器
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：301円
-在庫数：150
-商品カテゴリ：パソコン周辺機器
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：29999円
-在庫数：150
-商品カテゴリ：パソコン周辺機器
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：30000円
-在庫数：151
-商品カテゴリ：パソコン周辺機器
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：ワンタッチ開閉傘
-単価：30001円
-在庫数：152
-商品カテゴリ：パソコン周辺機器
-画像：umbrella.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カイヘイガサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2367,6 +1979,337 @@
   <si>
     <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/updateproduct/input」
 を入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「この商品の単価は0～999999999で入力してください」
+と表示されること</t>
+    <rPh sb="12" eb="14">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：水性ボールペン（黒）
+単価：999999999
+在庫数：12
+商品カテゴリ：スポーツ用品
+画像：black_pen_w.jpg
+（単価が999999999のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：水性ボールペン（黒）
+単価：999999998
+在庫数：12
+商品カテゴリ：スポーツ用品
+画像：black_pen_w.jpg
+（単価が999999998のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：水性ボールペン（黒）
+単価：1000000000
+在庫数：12
+商品カテゴリ：スポーツ用品
+画像：black_pen_w.jpg
+（単価が1000000000のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(正常系)</t>
+    <rPh sb="1" eb="3">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：10001円
+在庫数：150
+商品カテゴリ：雑貨
+画像：umbrella.jpg
+（単価が10001のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：299円
+在庫数：150
+商品カテゴリ：パソコン周辺機器
+画像：umbrella.jpg
+（単価が299のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：300円
+在庫数：150
+商品カテゴリ：パソコン周辺機器
+画像：umbrella.jpg
+（単価が300のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：301円
+在庫数：150
+商品カテゴリ：パソコン周辺機器
+画像：umbrella.jpg
+（単価が301のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：29999円
+在庫数：150
+商品カテゴリ：パソコン周辺機器
+画像：umbrella.jpg
+（単価が29999のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：30000円
+在庫数：151
+商品カテゴリ：パソコン周辺機器
+画像：umbrella.jpg
+（単価が30000のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：ワンタッチ開閉傘
+単価：30001円
+在庫数：152
+商品カテゴリ：パソコン周辺機器
+画像：umbrella.jpg
+（単価が30001のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイヘイガサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2756,44 +2699,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2801,89 +2825,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3237,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61:L61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3254,25 +3197,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3283,27 +3226,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3316,50 +3259,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3368,20 +3311,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3391,82 +3334,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -3478,18 +3421,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3501,18 +3444,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3524,18 +3467,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3547,18 +3490,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3570,18 +3513,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3593,20 +3536,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3618,18 +3561,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3641,18 +3584,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3664,18 +3607,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3692,13 +3635,13 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="34"/>
+      <c r="H18" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3715,13 +3658,13 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="34"/>
+      <c r="H19" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3738,13 +3681,13 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="34"/>
+      <c r="H20" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3756,20 +3699,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3781,22 +3724,22 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3808,22 +3751,22 @@
         <v>18</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -3835,22 +3778,22 @@
         <v>19</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3862,22 +3805,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -3889,22 +3832,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -3916,22 +3859,22 @@
         <v>22</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -3943,22 +3886,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -3970,22 +3913,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -3997,103 +3940,103 @@
         <v>25</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -4105,22 +4048,22 @@
         <v>29</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -4132,22 +4075,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+        <v>88</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -4159,49 +4102,49 @@
         <v>31</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -4213,22 +4156,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -4240,22 +4183,22 @@
         <v>34</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -4267,22 +4210,22 @@
         <v>35</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -4294,76 +4237,76 @@
         <v>36</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -4375,22 +4318,22 @@
         <v>39</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -4402,211 +4345,211 @@
         <v>40</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:17" ht="69" customHeight="1">
+    <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-    </row>
-    <row r="47" spans="1:17" ht="68" customHeight="1">
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+    </row>
+    <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="34"/>
-    </row>
-    <row r="48" spans="1:17" ht="69" customHeight="1">
+      <c r="P47" s="47"/>
+      <c r="Q47" s="46"/>
+    </row>
+    <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+        <v>126</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="34"/>
-    </row>
-    <row r="49" spans="1:17" ht="69" customHeight="1">
+      <c r="P48" s="47"/>
+      <c r="Q48" s="46"/>
+    </row>
+    <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="19"/>
     </row>
-    <row r="50" spans="1:17" ht="69" customHeight="1">
+    <row r="50" spans="1:17" ht="86.5" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="34"/>
-    </row>
-    <row r="51" spans="1:17" ht="69" customHeight="1">
+      <c r="P50" s="47"/>
+      <c r="Q50" s="46"/>
+    </row>
+    <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="18"/>
       <c r="Q51" s="19"/>
     </row>
-    <row r="52" spans="1:17" ht="69" customHeight="1">
+    <row r="52" spans="1:17" ht="85" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -4618,103 +4561,103 @@
         <v>48</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -4726,22 +4669,22 @@
         <v>52</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -4753,22 +4696,22 @@
         <v>53</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -4780,22 +4723,22 @@
         <v>54</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -4807,22 +4750,22 @@
         <v>55</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -4834,151 +4777,151 @@
         <v>59</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
         <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="28" t="s">
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="30" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="30" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="30" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -4989,21 +4932,21 @@
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -5014,46 +4957,46 @@
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="30" t="s">
+      <c r="B69" s="50"/>
+      <c r="C69" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33" t="s">
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="34"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="46"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -5064,23 +5007,23 @@
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="28" t="s">
+      <c r="C70" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -5091,21 +5034,21 @@
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="28" t="s">
+      <c r="B71" s="49"/>
+      <c r="C71" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -5116,21 +5059,21 @@
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="32"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="34"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
@@ -5141,21 +5084,21 @@
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="34"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
@@ -5192,139 +5135,30 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="C27:G27"/>
@@ -5349,30 +5183,139 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD38E01-D77C-41B1-AC29-88063DCDA65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC1C6D-2545-4009-9813-D0DFA8D8249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
   <si>
     <t>作成者</t>
   </si>
@@ -2309,6 +2309,21 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2616,7 +2631,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2693,12 +2708,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2708,28 +2756,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2750,83 +2843,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3180,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58:L58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3191,31 +3212,32 @@
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="72" customWidth="1"/>
+    <col min="14" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3230,23 +3252,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3256,53 +3278,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3311,21 +3335,21 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="68" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="71" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="14" t="s">
@@ -3334,85 +3358,103 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="19"/>
     </row>
@@ -3421,21 +3463,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="32" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
     </row>
@@ -3444,21 +3492,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -3467,21 +3521,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -3490,21 +3550,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -3513,21 +3579,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
     </row>
@@ -3536,23 +3608,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -3561,21 +3639,27 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="32" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -3584,21 +3668,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="32" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -3607,21 +3697,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -3635,16 +3731,22 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -3658,16 +3760,22 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
@@ -3681,16 +3789,22 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
@@ -3699,25 +3813,31 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="32" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
@@ -3726,25 +3846,25 @@
       <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
@@ -3753,25 +3873,25 @@
       <c r="B23" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
@@ -3780,25 +3900,25 @@
       <c r="B24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
@@ -3807,25 +3927,25 @@
       <c r="B25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="79.5" customHeight="1">
       <c r="A26" s="6">
@@ -3834,25 +3954,25 @@
       <c r="B26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="31" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="27"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
@@ -3861,25 +3981,25 @@
       <c r="B27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
@@ -3888,25 +4008,25 @@
       <c r="B28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="27"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
@@ -3915,25 +4035,25 @@
       <c r="B29" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="31" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="27"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
@@ -3942,25 +4062,25 @@
       <c r="B30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
@@ -3969,25 +4089,25 @@
       <c r="B31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
@@ -3996,25 +4116,25 @@
       <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
@@ -4023,25 +4143,25 @@
       <c r="B33" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="27"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
@@ -4050,25 +4170,25 @@
       <c r="B34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="31" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="27"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
@@ -4077,25 +4197,25 @@
       <c r="B35" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="31" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="27"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
@@ -4104,25 +4224,25 @@
       <c r="B36" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="31" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
@@ -4131,20 +4251,20 @@
       <c r="B37" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="31" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -4158,20 +4278,20 @@
       <c r="B38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="31" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -4185,20 +4305,20 @@
       <c r="B39" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="31" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -4212,25 +4332,25 @@
       <c r="B40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31" t="s">
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="27"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="31"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
@@ -4239,25 +4359,25 @@
       <c r="B41" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="31" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
@@ -4266,25 +4386,25 @@
       <c r="B42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="31" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
@@ -4293,25 +4413,25 @@
       <c r="B43" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="31" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="27"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
@@ -4320,25 +4440,25 @@
       <c r="B44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="31" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="27"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="31"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
@@ -4347,25 +4467,25 @@
       <c r="B45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="31" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="27"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
@@ -4374,25 +4494,25 @@
       <c r="B46" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="31" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
@@ -4401,25 +4521,25 @@
       <c r="B47" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="32" t="s">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="46"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="64"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
@@ -4428,25 +4548,25 @@
       <c r="B48" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="31" t="s">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="46"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="64"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
@@ -4455,20 +4575,20 @@
       <c r="B49" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="31" t="s">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -4482,25 +4602,25 @@
       <c r="B50" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="31" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="46"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="64"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
@@ -4509,20 +4629,20 @@
       <c r="B51" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="31" t="s">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -4536,20 +4656,20 @@
       <c r="B52" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="31" t="s">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -4563,25 +4683,25 @@
       <c r="B53" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="31" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
@@ -4590,25 +4710,25 @@
       <c r="B54" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="31" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
@@ -4617,25 +4737,25 @@
       <c r="B55" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="31" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
@@ -4644,25 +4764,25 @@
       <c r="B56" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="31" t="s">
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="27"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="31"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
@@ -4671,20 +4791,20 @@
       <c r="B57" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31" t="s">
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -4698,20 +4818,20 @@
       <c r="B58" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31" t="s">
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -4725,20 +4845,20 @@
       <c r="B59" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -4752,20 +4872,20 @@
       <c r="B60" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31" t="s">
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -4779,25 +4899,25 @@
       <c r="B61" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="31" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
@@ -4806,122 +4926,122 @@
       <c r="B62" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="31" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35" t="s">
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="32" t="s">
+      <c r="B64" s="60"/>
+      <c r="C64" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35" t="s">
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="32" t="s">
+      <c r="B65" s="60"/>
+      <c r="C65" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="35" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="32" t="s">
+      <c r="B66" s="60"/>
+      <c r="C66" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="35" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -4932,123 +5052,123 @@
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="31" t="s">
+      <c r="B67" s="60"/>
+      <c r="C67" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="27"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="31"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="31" t="s">
+      <c r="B68" s="60"/>
+      <c r="C68" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="32" t="s">
+      <c r="B69" s="61"/>
+      <c r="C69" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="47" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="46"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="64"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="27"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="31"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="31" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="27"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="31"/>
     </row>
     <row r="71" spans="1:17" ht="69.5" customHeight="1">
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="32" t="s">
+      <c r="B71" s="60"/>
+      <c r="C71" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="31" t="s">
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -5059,21 +5179,21 @@
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="31" t="s">
+      <c r="B72" s="60"/>
+      <c r="C72" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="32" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="34"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="38"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
@@ -5084,21 +5204,21 @@
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="31" t="s">
+      <c r="B73" s="61"/>
+      <c r="C73" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="32" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="34"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="38"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
@@ -5135,6 +5255,163 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
@@ -5159,163 +5436,6 @@
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:L61"/>
     <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC1C6D-2545-4009-9813-D0DFA8D8249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A87D0-FB4C-40C5-819A-C6C8FC0025D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>作成者</t>
   </si>
@@ -2631,7 +2631,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2651,203 +2651,200 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3201,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3212,32 +3209,32 @@
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="25" customWidth="1"/>
     <col min="14" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3252,588 +3249,588 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="71" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="29"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="15">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="71">
         <v>45503</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="15">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="71">
         <v>45503</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="15">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="71">
         <v>45503</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="36" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="15">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="71">
         <v>45503</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="36" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="15">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="71">
         <v>45503</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="36" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="15">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="71">
         <v>45503</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="36" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="15">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="71">
         <v>45503</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="36" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="15">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="71">
         <v>45503</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="27.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="15">
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="71">
         <v>45503</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="27.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="36" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="15">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="71">
         <v>45503</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="27.5" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="36" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="15">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="71">
         <v>45503</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="26.5" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="36" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="15">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="71">
         <v>45503</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" ht="40" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="36" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="15">
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="71">
         <v>45503</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="62" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="15">
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="71">
         <v>45503</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="62" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="15">
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="71">
         <v>45503</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="17" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="15">
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="71">
         <v>45503</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P21" s="30"/>
@@ -3843,26 +3840,32 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="32" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="P22" s="30"/>
       <c r="Q22" s="31"/>
     </row>
@@ -3870,26 +3873,32 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="32" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="P23" s="30"/>
       <c r="Q23" s="31"/>
     </row>
@@ -3897,26 +3906,32 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="32" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P24" s="30"/>
       <c r="Q24" s="31"/>
     </row>
@@ -3924,26 +3939,32 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="32" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="P25" s="30"/>
       <c r="Q25" s="31"/>
     </row>
@@ -3951,26 +3972,32 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="32" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="P26" s="30"/>
       <c r="Q26" s="31"/>
     </row>
@@ -3978,26 +4005,32 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="32" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P27" s="30"/>
       <c r="Q27" s="31"/>
     </row>
@@ -4005,26 +4038,32 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="32" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="P28" s="30"/>
       <c r="Q28" s="31"/>
     </row>
@@ -4032,26 +4071,32 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="32" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P29" s="30"/>
       <c r="Q29" s="31"/>
     </row>
@@ -4059,107 +4104,113 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26" t="s">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="31"/>
     </row>
@@ -4167,26 +4218,26 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="32" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="31"/>
     </row>
@@ -4194,26 +4245,26 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="32" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="31"/>
     </row>
@@ -4221,134 +4272,134 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="32" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="32" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="86" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="32" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="19"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="86" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="32" t="s">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="19"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="84.5" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="32" t="s">
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="31"/>
     </row>
@@ -4356,80 +4407,80 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="32" t="s">
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="32" t="s">
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="32" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="31"/>
     </row>
@@ -4437,26 +4488,26 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="32" t="s">
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="31"/>
     </row>
@@ -4464,26 +4515,26 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="32" t="s">
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="31"/>
     </row>
@@ -4491,296 +4542,296 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="32" t="s">
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="36" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="64"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="46"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="32" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="64"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="46"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="32" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="19"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="1:17" ht="86.5" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="32" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="64"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="46"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="32" t="s">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="19"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="1:17" ht="85" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="32" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="19"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="1:17" ht="81.5" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="32" t="s">
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="32" t="s">
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="32" t="s">
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="32" t="s">
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="31"/>
     </row>
@@ -4788,288 +4839,288 @@
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="32" t="s">
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="17"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="15"/>
     </row>
     <row r="58" spans="1:17" ht="93.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="32" t="s">
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="17"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="1:17" ht="82.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="32" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="17"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="1:17" ht="82.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="32" t="s">
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="17"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="15"/>
     </row>
     <row r="61" spans="1:17" ht="68" customHeight="1">
       <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="32" t="s">
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="32" t="s">
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="26" t="s">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="36" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="26" t="s">
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="26" t="s">
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="36" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="26" t="s">
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="19"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="17"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="32" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26" t="s">
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
     </row>
@@ -5077,49 +5128,49 @@
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="32" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26" t="s">
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="36" t="s">
+      <c r="B69" s="50"/>
+      <c r="C69" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="62" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" s="30"/>
       <c r="Q69" s="31"/>
     </row>
@@ -5127,26 +5178,26 @@
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="32" t="s">
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" s="30"/>
       <c r="Q70" s="31"/>
     </row>
@@ -5154,76 +5205,76 @@
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="36" t="s">
+      <c r="B71" s="49"/>
+      <c r="C71" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="32" t="s">
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="17"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="1:17" ht="91.5" customHeight="1">
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="36" t="s">
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="17"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="15"/>
     </row>
     <row r="73" spans="1:17" ht="90.5" customHeight="1">
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="61"/>
-      <c r="C73" s="32" t="s">
+      <c r="B73" s="50"/>
+      <c r="C73" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="36" t="s">
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="17"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="1:17" ht="11.25" customHeight="1">
       <c r="B74" s="4"/>
@@ -5255,58 +5306,101 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="H50:L50"/>
     <mergeCell ref="P50:Q50"/>
@@ -5331,8 +5425,61 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
     <mergeCell ref="P42:Q42"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="H46:L46"/>
@@ -5340,102 +5487,6 @@
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="H47:L47"/>
     <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A87D0-FB4C-40C5-819A-C6C8FC0025D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472DCB1-8A49-4B4A-B114-F19D3CAF1275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
   <si>
     <t>作成者</t>
   </si>
@@ -766,16 +766,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「完了」ボタンが表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・「商品名」とテキスト欄が表示されていること
 ・テキスト欄に商品名が表示されていること</t>
     <rPh sb="28" eb="29">
@@ -2325,6 +2315,20 @@
     <rPh sb="0" eb="2">
       <t>タカラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」ボタンが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2708,6 +2712,39 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2717,18 +2754,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2738,13 +2763,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,87 +2849,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3198,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="97" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3216,25 +3220,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,23 +3253,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3276,54 +3280,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3332,20 +3336,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="68" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
@@ -3355,102 +3359,102 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="71">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="26">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="71">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="26">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="71">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="26">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -3460,26 +3464,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="71">
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="26">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -3489,26 +3493,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="71">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="26">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -3518,26 +3522,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="71">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="26">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -3547,26 +3551,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="71">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="26">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -3576,26 +3580,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="71">
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="26">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -3605,28 +3609,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="71">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="26">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
@@ -3636,26 +3640,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="71">
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="26">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="15"/>
@@ -3665,26 +3669,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="71">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="26">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
@@ -3694,26 +3698,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="71">
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="26">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
@@ -3728,21 +3732,21 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="71">
+      <c r="H18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="26">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
@@ -3757,21 +3761,21 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="71">
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="26">
         <v>45503</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
@@ -3786,21 +3790,21 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="71">
+      <c r="H20" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="26">
         <v>45503</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
@@ -3810,31 +3814,31 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="71">
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="26">
         <v>45503</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
@@ -3843,31 +3847,31 @@
       <c r="B22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="29" t="s">
+      <c r="C22" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="71">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="26">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
@@ -3876,31 +3880,31 @@
       <c r="B23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="71">
+      <c r="C23" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="26">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
@@ -3909,31 +3913,31 @@
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29" t="s">
+      <c r="C24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="71">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="26">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
+        <v>133</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
@@ -3942,31 +3946,31 @@
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="29" t="s">
+      <c r="C25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="71">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="26">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="1:17" ht="79.5" customHeight="1">
       <c r="A26" s="6">
@@ -3975,31 +3979,31 @@
       <c r="B26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29" t="s">
+      <c r="C26" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="71">
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="26">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
@@ -4008,31 +4012,31 @@
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="29" t="s">
+      <c r="C27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="71">
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="26">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31"/>
+        <v>133</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
@@ -4041,31 +4045,31 @@
       <c r="B28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="29" t="s">
+      <c r="C28" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="71">
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="26">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
@@ -4074,31 +4078,31 @@
       <c r="B29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="71">
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="26">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
+        <v>133</v>
+      </c>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
@@ -4107,31 +4111,31 @@
       <c r="B30" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32" t="s">
+      <c r="C30" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="71">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="26">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
@@ -4140,25 +4144,25 @@
       <c r="B31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32" t="s">
+      <c r="C31" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="71"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="26"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
@@ -4167,25 +4171,25 @@
       <c r="B32" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32" t="s">
+      <c r="C32" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="71"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
@@ -4194,25 +4198,25 @@
       <c r="B33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32" t="s">
+      <c r="C33" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="71"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="32"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
@@ -4221,52 +4225,52 @@
       <c r="B34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="71"/>
+      <c r="C34" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="71"/>
+        <v>87</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
@@ -4275,25 +4279,25 @@
       <c r="B36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="29" t="s">
+      <c r="C36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="71"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
@@ -4302,21 +4306,21 @@
       <c r="B37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="29" t="s">
+      <c r="C37" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="71"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="16"/>
@@ -4329,21 +4333,21 @@
       <c r="B38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="29" t="s">
+      <c r="C38" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="71"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="16"/>
@@ -4356,21 +4360,21 @@
       <c r="B39" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="29" t="s">
+      <c r="C39" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="71"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="16"/>
@@ -4383,52 +4387,52 @@
       <c r="B40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="29" t="s">
+      <c r="C40" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="71"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="32"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="29" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="71"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
@@ -4437,25 +4441,25 @@
       <c r="B42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="29" t="s">
+      <c r="C42" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="71"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
@@ -4464,25 +4468,25 @@
       <c r="B43" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="29" t="s">
+      <c r="C43" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="71"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="32"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
@@ -4491,25 +4495,25 @@
       <c r="B44" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="29" t="s">
+      <c r="C44" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="71"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="32"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
@@ -4518,25 +4522,25 @@
       <c r="B45" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="29" t="s">
+      <c r="C45" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="71"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="26"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="32"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
@@ -4545,102 +4549,102 @@
       <c r="B46" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="29" t="s">
+      <c r="C46" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="71"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="71"/>
+      <c r="C47" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="26"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="46"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="65"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="71"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="46"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="65"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="71"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="16"/>
@@ -4653,25 +4657,25 @@
       <c r="B50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29" t="s">
+      <c r="C50" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="71"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="26"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="46"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="65"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
@@ -4680,21 +4684,21 @@
       <c r="B51" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29" t="s">
+      <c r="C51" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="71"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="16"/>
@@ -4707,21 +4711,21 @@
       <c r="B52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="71"/>
+      <c r="C52" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="26"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="16"/>
@@ -4734,25 +4738,25 @@
       <c r="B53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="29" t="s">
+      <c r="C53" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="71"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="26"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
@@ -4761,25 +4765,25 @@
       <c r="B54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="29" t="s">
+      <c r="C54" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="71"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
@@ -4788,25 +4792,25 @@
       <c r="B55" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="29" t="s">
+      <c r="C55" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="71"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="26"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
@@ -4815,25 +4819,25 @@
       <c r="B56" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="29" t="s">
+      <c r="C56" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="71"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="26"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="32"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
@@ -4842,21 +4846,21 @@
       <c r="B57" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="71"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="14"/>
@@ -4869,21 +4873,21 @@
       <c r="B58" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="71"/>
+      <c r="C58" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="14"/>
@@ -4896,21 +4900,21 @@
       <c r="B59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="29" t="s">
+      <c r="C59" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="71"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="14"/>
@@ -4923,21 +4927,21 @@
       <c r="B60" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="71"/>
+      <c r="C60" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="26"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="14"/>
@@ -4950,25 +4954,25 @@
       <c r="B61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="29" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="71"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="26"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
@@ -4977,123 +4981,123 @@
       <c r="B62" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="29" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="71"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="26"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="32" t="s">
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="71"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="26" t="s">
+      <c r="B64" s="61"/>
+      <c r="C64" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="32" t="s">
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="71"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="61"/>
+      <c r="C65" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="32" t="s">
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="71"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="26" t="s">
+      <c r="B66" s="61"/>
+      <c r="C66" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="32" t="s">
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="71"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="26"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="16"/>
@@ -5103,124 +5107,124 @@
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="29" t="s">
+      <c r="B67" s="61"/>
+      <c r="C67" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32" t="s">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="71"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="32"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="29" t="s">
+      <c r="B68" s="61"/>
+      <c r="C68" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32" t="s">
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="71"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="62"/>
+      <c r="C69" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="47" t="s">
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="71"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="26"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="32"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="29" t="s">
+      <c r="C70" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="71"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="32"/>
     </row>
     <row r="71" spans="1:17" ht="69.5" customHeight="1">
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29" t="s">
+      <c r="B71" s="61"/>
+      <c r="C71" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="71"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="14"/>
@@ -5230,22 +5234,22 @@
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="26" t="s">
+      <c r="B72" s="61"/>
+      <c r="C72" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="71"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="14"/>
@@ -5255,22 +5259,22 @@
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="26" t="s">
+      <c r="B73" s="62"/>
+      <c r="C73" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="71"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="26"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="14"/>
@@ -5306,6 +5310,163 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
@@ -5330,163 +5491,6 @@
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:L61"/>
     <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472DCB1-8A49-4B4A-B114-F19D3CAF1275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77B1B6-0ACA-4A35-A012-67A764866BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>作成者</t>
   </si>
@@ -2329,6 +2329,38 @@
   </si>
   <si>
     <t>×〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半角英数字はそもそも入力不可なのでテストは合格とする</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作です」と表示される</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2716,139 +2748,139 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3202,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="97" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70:N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3220,25 +3252,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,23 +3285,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3284,50 +3316,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3336,20 +3368,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
@@ -3359,32 +3391,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="26">
         <v>45503</v>
       </c>
@@ -3394,28 +3426,28 @@
       <c r="O6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="26">
         <v>45503</v>
       </c>
@@ -3425,28 +3457,28 @@
       <c r="O7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="26">
         <v>45503</v>
       </c>
@@ -3464,18 +3496,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="37" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="26">
         <v>45503</v>
       </c>
@@ -3493,18 +3525,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="37" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="26">
         <v>45503</v>
       </c>
@@ -3522,18 +3554,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="37" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="26">
         <v>45503</v>
       </c>
@@ -3551,18 +3583,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="37" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="26">
         <v>45503</v>
       </c>
@@ -3580,18 +3612,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="37" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="26">
         <v>45503</v>
       </c>
@@ -3609,20 +3641,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="26">
         <v>45503</v>
       </c>
@@ -3640,18 +3672,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="37" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="26">
         <v>45503</v>
       </c>
@@ -3669,18 +3701,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="37" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="26">
         <v>45503</v>
       </c>
@@ -3698,18 +3730,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="37" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="26">
         <v>45503</v>
       </c>
@@ -3732,13 +3764,13 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="26">
         <v>45503</v>
       </c>
@@ -3761,13 +3793,13 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="26">
         <v>45503</v>
       </c>
@@ -3790,13 +3822,13 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="26">
         <v>45503</v>
       </c>
@@ -3814,20 +3846,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="26">
         <v>45503</v>
       </c>
@@ -3837,8 +3869,8 @@
       <c r="O21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
@@ -3847,20 +3879,20 @@
       <c r="B22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="33" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="26">
         <v>45504</v>
       </c>
@@ -3870,8 +3902,8 @@
       <c r="O22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
@@ -3880,20 +3912,20 @@
       <c r="B23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="26">
         <v>45504</v>
       </c>
@@ -3903,8 +3935,8 @@
       <c r="O23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
@@ -3913,20 +3945,20 @@
       <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="26">
         <v>45504</v>
       </c>
@@ -3934,10 +3966,10 @@
         <v>135</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
@@ -3946,20 +3978,20 @@
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="33" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="26">
         <v>45504</v>
       </c>
@@ -3969,30 +4001,30 @@
       <c r="O25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" spans="1:17" ht="79.5" customHeight="1">
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="1:17" ht="92" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="33" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="26">
         <v>45504</v>
       </c>
@@ -4002,30 +4034,30 @@
       <c r="O26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" ht="79.5" customHeight="1">
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
+    </row>
+    <row r="27" spans="1:17" ht="89" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="33" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="26">
         <v>45504</v>
       </c>
@@ -4033,10 +4065,10 @@
         <v>135</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
@@ -4045,20 +4077,20 @@
       <c r="B28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="33" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="26">
         <v>45504</v>
       </c>
@@ -4068,8 +4100,8 @@
       <c r="O28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
@@ -4078,20 +4110,20 @@
       <c r="B29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="26">
         <v>45504</v>
       </c>
@@ -4099,10 +4131,10 @@
         <v>135</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
@@ -4111,20 +4143,20 @@
       <c r="B30" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="26">
         <v>45504</v>
       </c>
@@ -4134,8 +4166,8 @@
       <c r="O30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
@@ -4144,25 +4176,31 @@
       <c r="B31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
@@ -4171,25 +4209,31 @@
       <c r="B32" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
@@ -4198,25 +4242,31 @@
       <c r="B33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="32"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
@@ -4225,25 +4275,31 @@
       <c r="B34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="33" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="32"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
@@ -4252,25 +4308,31 @@
       <c r="B35" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="33" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
@@ -4279,25 +4341,31 @@
       <c r="B36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="33" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
@@ -4306,23 +4374,29 @@
       <c r="B37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="33" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
@@ -4333,23 +4407,29 @@
       <c r="B38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="33" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
@@ -4360,23 +4440,29 @@
       <c r="B39" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="33" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
@@ -4387,25 +4473,31 @@
       <c r="B40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="33" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="32"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
@@ -4414,25 +4506,31 @@
       <c r="B41" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="33" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
@@ -4441,25 +4539,31 @@
       <c r="B42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="33" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
@@ -4468,25 +4572,31 @@
       <c r="B43" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="32"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
@@ -4495,25 +4605,31 @@
       <c r="B44" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="33" t="s">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
@@ -4522,25 +4638,31 @@
       <c r="B45" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="33" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="36"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
@@ -4549,25 +4671,31 @@
       <c r="B46" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="33" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
@@ -4576,25 +4704,31 @@
       <c r="B47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="37" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="65"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="30"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
@@ -4603,25 +4737,31 @@
       <c r="B48" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="33" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="65"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="30"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
@@ -4630,23 +4770,29 @@
       <c r="B49" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="33" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="17"/>
     </row>
@@ -4657,25 +4803,31 @@
       <c r="B50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="33" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="65"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="30"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
@@ -4684,23 +4836,29 @@
       <c r="B51" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="33" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
@@ -4711,23 +4869,29 @@
       <c r="B52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="33" t="s">
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
     </row>
@@ -4738,25 +4902,31 @@
       <c r="B53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="33" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
@@ -4765,25 +4935,31 @@
       <c r="B54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="33" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
@@ -4792,25 +4968,31 @@
       <c r="B55" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="33" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
@@ -4819,25 +5001,31 @@
       <c r="B56" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="33" t="s">
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="36"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
@@ -4846,23 +5034,29 @@
       <c r="B57" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="33" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="15"/>
     </row>
@@ -4873,23 +5067,29 @@
       <c r="B58" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="33" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="15"/>
     </row>
@@ -4900,23 +5100,29 @@
       <c r="B59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="33" t="s">
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="15"/>
     </row>
@@ -4927,23 +5133,29 @@
       <c r="B60" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="33" t="s">
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="15"/>
     </row>
@@ -4954,25 +5166,31 @@
       <c r="B61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="33" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" spans="1:17" ht="69" customHeight="1">
       <c r="A62" s="6">
@@ -4981,125 +5199,155 @@
       <c r="B62" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="33" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="27" t="s">
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="37" t="s">
+      <c r="B64" s="50"/>
+      <c r="C64" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="27" t="s">
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="37" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="27" t="s">
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="37" t="s">
+      <c r="B66" s="50"/>
+      <c r="C66" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="27" t="s">
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
@@ -5107,178 +5355,224 @@
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="33" t="s">
+      <c r="B67" s="50"/>
+      <c r="C67" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="32"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="36"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="33" t="s">
+      <c r="B68" s="50"/>
+      <c r="C68" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="37" t="s">
+      <c r="B69" s="51"/>
+      <c r="C69" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="63" t="s">
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="32"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="36"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="32"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="36"/>
     </row>
     <row r="71" spans="1:17" ht="69.5" customHeight="1">
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="37" t="s">
+      <c r="B71" s="50"/>
+      <c r="C71" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="15"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="36"/>
     </row>
     <row r="72" spans="1:17" ht="91.5" customHeight="1">
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="33" t="s">
+      <c r="B72" s="50"/>
+      <c r="C72" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="37" t="s">
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="15"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P72" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="90.5" customHeight="1">
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="33" t="s">
+      <c r="B73" s="51"/>
+      <c r="C73" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="37" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="15"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="26">
+        <v>45504</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P73" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q73" s="33"/>
     </row>
     <row r="74" spans="1:17" ht="11.25" customHeight="1">
       <c r="B74" s="4"/>
@@ -5309,44 +5603,130 @@
       <c r="G80" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="P55:Q55"/>
+  <mergeCells count="184">
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H17:L17"/>
@@ -5371,126 +5751,43 @@
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77B1B6-0ACA-4A35-A012-67A764866BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA470FEA-C1B9-4D11-A43D-3D27BBA6EDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="136">
   <si>
     <t>作成者</t>
   </si>
@@ -321,66 +321,6 @@
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：水性ボールペン（黒）
-単価：2500円
-在庫数：1000001
-商品カテゴリ：文房具
-画像：black_pen_w.txt
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「画像ファイルは、jpgまたはpngを選択してください」
-が出力される</t>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2303,10 +2243,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2325,10 +2261,6 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×〇</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2747,54 +2679,123 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2812,75 +2813,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3232,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70:N70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="97" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3252,56 +3184,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3312,54 +3244,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3368,20 +3300,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
@@ -3391,102 +3323,102 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="70"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="26">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="26">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="C8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="26">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -3496,26 +3428,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="26">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -3525,26 +3457,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="26">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -3554,26 +3486,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="26">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -3583,26 +3515,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="26">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -3612,26 +3544,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="26">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -3641,28 +3573,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="26">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
@@ -3672,26 +3604,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="26">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="15"/>
@@ -3701,26 +3633,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="26">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
@@ -3730,26 +3662,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="26">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
@@ -3764,21 +3696,21 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="30"/>
+      <c r="H18" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
       <c r="M18" s="26">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
@@ -3793,21 +3725,21 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="30"/>
+      <c r="H19" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="26">
         <v>45503</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
@@ -3822,21 +3754,21 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="30"/>
+      <c r="H20" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="26">
         <v>45503</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
@@ -3846,556 +3778,556 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="26">
         <v>45503</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="26">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="26">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="26">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="26">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" ht="92" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="26">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" ht="89" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="26">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="26">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="26">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="26">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="26">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="26">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="26">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
       <c r="M34" s="26">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
       <c r="M35" s="26">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="26">
         <v>45504</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="26">
         <v>45504</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
@@ -4405,30 +4337,30 @@
         <v>33</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="26">
         <v>45504</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
@@ -4438,30 +4370,30 @@
         <v>34</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="26">
         <v>45504</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
@@ -4471,327 +4403,327 @@
         <v>35</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="26">
         <v>45504</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
       <c r="M41" s="26">
         <v>45504</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="26">
         <v>45504</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="26">
         <v>45504</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="26">
         <v>45504</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="30"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="26">
         <v>45504</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="30"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="26">
         <v>45504</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="30"/>
+        <v>102</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
       <c r="M47" s="26">
         <v>45504</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="30"/>
+        <v>131</v>
+      </c>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="65"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="26">
         <v>45504</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="30"/>
+        <v>131</v>
+      </c>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="65"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
       <c r="M49" s="26">
         <v>45504</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="17"/>
@@ -4801,63 +4733,63 @@
         <v>45</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="26">
         <v>45504</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="30"/>
+        <v>131</v>
+      </c>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="65"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
       <c r="M51" s="26">
         <v>45504</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
@@ -4867,30 +4799,30 @@
         <v>47</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="26">
         <v>45504</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
@@ -4900,162 +4832,162 @@
         <v>48</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="C53" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
       <c r="M53" s="26">
         <v>45504</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
       <c r="M54" s="26">
         <v>45504</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="26">
         <v>45504</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
       <c r="M56" s="26">
         <v>45504</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="30"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
       <c r="M57" s="26">
         <v>45504</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="15"/>
@@ -5065,30 +4997,30 @@
         <v>53</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="26">
         <v>45504</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="15"/>
@@ -5098,30 +5030,30 @@
         <v>54</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
       <c r="M59" s="26">
         <v>45504</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="15"/>
@@ -5131,30 +5063,30 @@
         <v>55</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="26">
         <v>45504</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="15"/>
@@ -5164,421 +5096,392 @@
         <v>59</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="26">
         <v>45504</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-    </row>
-    <row r="62" spans="1:17" ht="69" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+    </row>
+    <row r="62" spans="1:17" ht="13.5" customHeight="1">
       <c r="A62" s="6">
-        <v>60</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="28"/>
-      <c r="H62" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
+      <c r="H62" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
       <c r="M62" s="26">
         <v>45504</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
-        <v>61</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="61"/>
+      <c r="C63" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="28" t="s">
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
       <c r="M63" s="26">
         <v>45504</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
-        <v>62</v>
-      </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="61"/>
+      <c r="C64" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
       <c r="M64" s="26">
         <v>45504</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
-        <v>63</v>
-      </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="61"/>
+      <c r="C65" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
       <c r="M65" s="26">
         <v>45504</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1">
       <c r="A66" s="6">
-        <v>64</v>
-      </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="61"/>
+      <c r="C66" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
       <c r="M66" s="26">
         <v>45504</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="17"/>
+        <v>131</v>
+      </c>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="30"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
-        <v>65</v>
-      </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="61"/>
+      <c r="C67" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
       <c r="M67" s="26">
         <v>45504</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
-        <v>66</v>
-      </c>
-      <c r="B68" s="50"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="62"/>
       <c r="C68" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="28"/>
-      <c r="H68" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
+      <c r="H68" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="65"/>
       <c r="M68" s="26">
         <v>45504</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="30"/>
+    </row>
+    <row r="69" spans="1:17" ht="69.5" customHeight="1">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="O68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-    </row>
-    <row r="69" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A69" s="6">
-        <v>67</v>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="30"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
       <c r="M69" s="26">
         <v>45504</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="30"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
-        <v>68</v>
-      </c>
-      <c r="B70" s="49" t="s">
-        <v>35</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B70" s="61"/>
       <c r="C70" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
       <c r="G70" s="28"/>
-      <c r="H70" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
+      <c r="H70" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="26">
         <v>45504</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="36"/>
-    </row>
-    <row r="71" spans="1:17" ht="69.5" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="30"/>
+    </row>
+    <row r="71" spans="1:17" ht="91.5" customHeight="1">
       <c r="A71" s="6">
-        <v>69</v>
-      </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="33"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="61"/>
+      <c r="C71" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
       <c r="H71" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="28"/>
       <c r="M71" s="26">
         <v>45504</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="36"/>
-    </row>
-    <row r="72" spans="1:17" ht="91.5" customHeight="1">
+      <c r="Q71" s="28"/>
+    </row>
+    <row r="72" spans="1:17" ht="90.5" customHeight="1">
       <c r="A72" s="6">
-        <v>70</v>
-      </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="62"/>
+      <c r="C72" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="28"/>
       <c r="M72" s="26">
         <v>45504</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P72" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="P72" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q72" s="33"/>
-    </row>
-    <row r="73" spans="1:17" ht="90.5" customHeight="1">
-      <c r="A73" s="6">
-        <v>71</v>
-      </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="26">
-        <v>45504</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P73" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q73" s="33"/>
-    </row>
-    <row r="74" spans="1:17" ht="11.25" customHeight="1">
+      <c r="Q72" s="28"/>
+    </row>
+    <row r="73" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:17" ht="11">
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:17" ht="11">
+    <row r="75" spans="1:17" ht="11.25" customHeight="1">
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
     </row>
@@ -5598,131 +5501,49 @@
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
+  <mergeCells count="181">
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
     <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="P41:Q41"/>
@@ -5747,47 +5568,122 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA470FEA-C1B9-4D11-A43D-3D27BBA6EDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B31221E-064D-4D63-89D5-DD45B2296EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2680,139 +2680,139 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3166,7 +3166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="97" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
@@ -3184,25 +3184,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,23 +3217,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3248,50 +3248,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3300,20 +3300,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
@@ -3323,32 +3323,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="34"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="26">
         <v>45503</v>
       </c>
@@ -3358,28 +3358,28 @@
       <c r="O6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="26">
         <v>45503</v>
       </c>
@@ -3389,28 +3389,28 @@
       <c r="O7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="26">
         <v>45503</v>
       </c>
@@ -3428,18 +3428,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="26">
         <v>45503</v>
       </c>
@@ -3457,18 +3457,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="26">
         <v>45503</v>
       </c>
@@ -3486,18 +3486,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="26">
         <v>45503</v>
       </c>
@@ -3515,18 +3515,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="26">
         <v>45503</v>
       </c>
@@ -3544,18 +3544,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="26">
         <v>45503</v>
       </c>
@@ -3573,20 +3573,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="26">
         <v>45503</v>
       </c>
@@ -3604,18 +3604,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="26">
         <v>45503</v>
       </c>
@@ -3633,18 +3633,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="26">
         <v>45503</v>
       </c>
@@ -3662,18 +3662,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="26">
         <v>45503</v>
       </c>
@@ -3696,13 +3696,13 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="26">
         <v>45503</v>
       </c>
@@ -3725,13 +3725,13 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="26">
         <v>45503</v>
       </c>
@@ -3754,13 +3754,13 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="26">
         <v>45503</v>
       </c>
@@ -3778,20 +3778,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="28"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="26">
         <v>45503</v>
       </c>
@@ -3801,8 +3801,8 @@
       <c r="O21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
@@ -3811,20 +3811,20 @@
       <c r="B22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="35" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="26">
         <v>45504</v>
       </c>
@@ -3834,8 +3834,8 @@
       <c r="O22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
@@ -3844,20 +3844,20 @@
       <c r="B23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="35" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="26">
         <v>45504</v>
       </c>
@@ -3867,8 +3867,8 @@
       <c r="O23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
@@ -3877,20 +3877,20 @@
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="35" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="26">
         <v>45504</v>
       </c>
@@ -3900,8 +3900,8 @@
       <c r="O24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
@@ -3910,20 +3910,20 @@
       <c r="B25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="35" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="26">
         <v>45504</v>
       </c>
@@ -3933,8 +3933,8 @@
       <c r="O25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="1:17" ht="92" customHeight="1">
       <c r="A26" s="6">
@@ -3943,20 +3943,20 @@
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="35" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="26">
         <v>45504</v>
       </c>
@@ -3966,8 +3966,8 @@
       <c r="O26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="89" customHeight="1">
       <c r="A27" s="6">
@@ -3976,20 +3976,20 @@
       <c r="B27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="35" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="26">
         <v>45504</v>
       </c>
@@ -3999,8 +3999,8 @@
       <c r="O27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
@@ -4009,20 +4009,20 @@
       <c r="B28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="35" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="26">
         <v>45504</v>
       </c>
@@ -4032,8 +4032,8 @@
       <c r="O28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
@@ -4042,20 +4042,20 @@
       <c r="B29" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="35" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="26">
         <v>45504</v>
       </c>
@@ -4065,8 +4065,8 @@
       <c r="O29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
@@ -4075,20 +4075,20 @@
       <c r="B30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="26">
         <v>45504</v>
       </c>
@@ -4098,8 +4098,8 @@
       <c r="O30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
@@ -4108,20 +4108,20 @@
       <c r="B31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="26">
         <v>45504</v>
       </c>
@@ -4131,8 +4131,8 @@
       <c r="O31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
@@ -4141,20 +4141,20 @@
       <c r="B32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="26">
         <v>45504</v>
       </c>
@@ -4164,8 +4164,8 @@
       <c r="O32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
@@ -4174,20 +4174,20 @@
       <c r="B33" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="26">
         <v>45504</v>
       </c>
@@ -4197,8 +4197,8 @@
       <c r="O33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
@@ -4207,20 +4207,20 @@
       <c r="B34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="35" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
       <c r="M34" s="26">
         <v>45504</v>
       </c>
@@ -4230,8 +4230,8 @@
       <c r="O34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="28"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
@@ -4240,20 +4240,20 @@
       <c r="B35" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="35" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="26">
         <v>45504</v>
       </c>
@@ -4263,8 +4263,8 @@
       <c r="O35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
@@ -4273,20 +4273,20 @@
       <c r="B36" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="35" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="26">
         <v>45504</v>
       </c>
@@ -4296,8 +4296,8 @@
       <c r="O36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
@@ -4306,20 +4306,20 @@
       <c r="B37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="35" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
       <c r="M37" s="26">
         <v>45504</v>
       </c>
@@ -4339,20 +4339,20 @@
       <c r="B38" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="35" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="26">
         <v>45504</v>
       </c>
@@ -4372,20 +4372,20 @@
       <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="35" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
       <c r="M39" s="26">
         <v>45504</v>
       </c>
@@ -4405,20 +4405,20 @@
       <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="35" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
       <c r="M40" s="26">
         <v>45504</v>
       </c>
@@ -4428,8 +4428,8 @@
       <c r="O40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="28"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
@@ -4438,20 +4438,20 @@
       <c r="B41" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="35" t="s">
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="26">
         <v>45504</v>
       </c>
@@ -4461,8 +4461,8 @@
       <c r="O41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
@@ -4471,20 +4471,20 @@
       <c r="B42" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="35" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
       <c r="M42" s="26">
         <v>45504</v>
       </c>
@@ -4494,8 +4494,8 @@
       <c r="O42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
@@ -4504,20 +4504,20 @@
       <c r="B43" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="35" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
       <c r="M43" s="26">
         <v>45504</v>
       </c>
@@ -4527,8 +4527,8 @@
       <c r="O43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="28"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
@@ -4537,20 +4537,20 @@
       <c r="B44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="35" t="s">
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
       <c r="M44" s="26">
         <v>45504</v>
       </c>
@@ -4560,8 +4560,8 @@
       <c r="O44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
@@ -4570,20 +4570,20 @@
       <c r="B45" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="35" t="s">
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
       <c r="M45" s="26">
         <v>45504</v>
       </c>
@@ -4593,8 +4593,8 @@
       <c r="O45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
@@ -4603,20 +4603,20 @@
       <c r="B46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="35" t="s">
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
       <c r="M46" s="26">
         <v>45504</v>
       </c>
@@ -4626,8 +4626,8 @@
       <c r="O46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
@@ -4636,20 +4636,20 @@
       <c r="B47" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="27" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="32"/>
       <c r="M47" s="26">
         <v>45504</v>
       </c>
@@ -4659,8 +4659,8 @@
       <c r="O47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="65"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="32"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
@@ -4669,20 +4669,20 @@
       <c r="B48" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="35" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
       <c r="M48" s="26">
         <v>45504</v>
       </c>
@@ -4692,8 +4692,8 @@
       <c r="O48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="65"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="32"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
@@ -4702,20 +4702,20 @@
       <c r="B49" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="35" t="s">
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
       <c r="M49" s="26">
         <v>45504</v>
       </c>
@@ -4735,20 +4735,20 @@
       <c r="B50" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="35" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
       <c r="M50" s="26">
         <v>45504</v>
       </c>
@@ -4758,8 +4758,8 @@
       <c r="O50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="65"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="32"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
@@ -4768,20 +4768,20 @@
       <c r="B51" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="35" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
       <c r="M51" s="26">
         <v>45504</v>
       </c>
@@ -4801,20 +4801,20 @@
       <c r="B52" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="35" t="s">
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
       <c r="M52" s="26">
         <v>45504</v>
       </c>
@@ -4834,20 +4834,20 @@
       <c r="B53" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="35" t="s">
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
       <c r="M53" s="26">
         <v>45504</v>
       </c>
@@ -4857,8 +4857,8 @@
       <c r="O53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
@@ -4867,20 +4867,20 @@
       <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="35" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
       <c r="M54" s="26">
         <v>45504</v>
       </c>
@@ -4890,8 +4890,8 @@
       <c r="O54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
@@ -4900,20 +4900,20 @@
       <c r="B55" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="35" t="s">
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
       <c r="M55" s="26">
         <v>45504</v>
       </c>
@@ -4923,8 +4923,8 @@
       <c r="O55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
@@ -4933,20 +4933,20 @@
       <c r="B56" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="35" t="s">
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
       <c r="M56" s="26">
         <v>45504</v>
       </c>
@@ -4956,8 +4956,8 @@
       <c r="O56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="30"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="28"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
@@ -4966,20 +4966,20 @@
       <c r="B57" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="35" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
       <c r="M57" s="26">
         <v>45504</v>
       </c>
@@ -4999,20 +4999,20 @@
       <c r="B58" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="35" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
       <c r="M58" s="26">
         <v>45504</v>
       </c>
@@ -5032,20 +5032,20 @@
       <c r="B59" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="35" t="s">
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
       <c r="M59" s="26">
         <v>45504</v>
       </c>
@@ -5065,20 +5065,20 @@
       <c r="B60" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="35" t="s">
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
       <c r="M60" s="26">
         <v>45504</v>
       </c>
@@ -5098,20 +5098,20 @@
       <c r="B61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="35" t="s">
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
       <c r="M61" s="26">
         <v>45504</v>
       </c>
@@ -5121,30 +5121,30 @@
       <c r="O61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
     </row>
     <row r="62" spans="1:17" ht="13.5" customHeight="1">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="31" t="s">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
       <c r="M62" s="26">
         <v>45504</v>
       </c>
@@ -5154,28 +5154,28 @@
       <c r="O62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="50"/>
+      <c r="C63" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="31" t="s">
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
       <c r="M63" s="26">
         <v>45504</v>
       </c>
@@ -5185,28 +5185,28 @@
       <c r="O63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="50"/>
+      <c r="C64" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="31" t="s">
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
       <c r="M64" s="26">
         <v>45504</v>
       </c>
@@ -5216,28 +5216,28 @@
       <c r="O64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="31" t="s">
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
       <c r="M65" s="26">
         <v>45504</v>
       </c>
@@ -5254,21 +5254,21 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="35" t="s">
+      <c r="B66" s="50"/>
+      <c r="C66" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31" t="s">
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
       <c r="M66" s="26">
         <v>45504</v>
       </c>
@@ -5278,28 +5278,28 @@
       <c r="O66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="30"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="28"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="35" t="s">
+      <c r="B67" s="50"/>
+      <c r="C67" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31" t="s">
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
       <c r="M67" s="26">
         <v>45504</v>
       </c>
@@ -5309,28 +5309,28 @@
       <c r="O67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="51"/>
+      <c r="C68" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="63" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="65"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="32"/>
       <c r="M68" s="26">
         <v>45504</v>
       </c>
@@ -5340,30 +5340,30 @@
       <c r="O68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="30"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="28"/>
     </row>
     <row r="69" spans="1:17" ht="69.5" customHeight="1">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="35" t="s">
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="26">
         <v>45504</v>
       </c>
@@ -5373,28 +5373,28 @@
       <c r="O69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="30"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="28"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="50"/>
+      <c r="C70" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="35" t="s">
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
       <c r="M70" s="26">
         <v>45504</v>
       </c>
@@ -5404,28 +5404,28 @@
       <c r="O70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="30"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="28"/>
     </row>
     <row r="71" spans="1:17" ht="91.5" customHeight="1">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="35" t="s">
+      <c r="B71" s="50"/>
+      <c r="C71" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="27" t="s">
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="28"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="26">
         <v>45504</v>
       </c>
@@ -5435,30 +5435,30 @@
       <c r="O71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P71" s="27" t="s">
+      <c r="P71" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Q71" s="28"/>
+      <c r="Q71" s="35"/>
     </row>
     <row r="72" spans="1:17" ht="90.5" customHeight="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="35" t="s">
+      <c r="B72" s="51"/>
+      <c r="C72" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="27" t="s">
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="28"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="35"/>
       <c r="M72" s="26">
         <v>45504</v>
       </c>
@@ -5468,10 +5468,10 @@
       <c r="O72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P72" s="27" t="s">
+      <c r="P72" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Q72" s="28"/>
+      <c r="Q72" s="35"/>
     </row>
     <row r="73" spans="1:17" ht="11.25" customHeight="1">
       <c r="B73" s="4"/>
@@ -5503,23 +5503,146 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="C42:G42"/>
@@ -5544,146 +5667,23 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B31221E-064D-4D63-89D5-DD45B2296EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13132A27-9F6D-4564-B215-C884365EC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="137">
   <si>
     <t>作成者</t>
   </si>
@@ -2292,6 +2292,13 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2680,6 +2687,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2688,45 +2701,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2744,75 +2820,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3166,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3184,25 +3191,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,23 +3224,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3248,50 +3255,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3300,20 +3307,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
@@ -3323,32 +3330,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="26">
         <v>45503</v>
       </c>
@@ -3358,28 +3365,28 @@
       <c r="O6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="26">
         <v>45503</v>
       </c>
@@ -3389,28 +3396,28 @@
       <c r="O7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="33" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="26">
         <v>45503</v>
       </c>
@@ -3428,18 +3435,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="33" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="26">
         <v>45503</v>
       </c>
@@ -3457,18 +3464,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="33" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="26">
         <v>45503</v>
       </c>
@@ -3486,18 +3493,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="26">
         <v>45503</v>
       </c>
@@ -3515,18 +3522,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="33" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="26">
         <v>45503</v>
       </c>
@@ -3544,18 +3551,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="33" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="26">
         <v>45503</v>
       </c>
@@ -3573,20 +3580,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="33" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="26">
         <v>45503</v>
       </c>
@@ -3604,18 +3611,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="33" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="26">
         <v>45503</v>
       </c>
@@ -3633,18 +3640,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="33" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="26">
         <v>45503</v>
       </c>
@@ -3662,18 +3669,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="26">
         <v>45503</v>
       </c>
@@ -3696,13 +3703,13 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="32"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="26">
         <v>45503</v>
       </c>
@@ -3725,13 +3732,13 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="26">
         <v>45503</v>
       </c>
@@ -3754,13 +3761,13 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="32"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="26">
         <v>45503</v>
       </c>
@@ -3778,20 +3785,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="26">
         <v>45503</v>
       </c>
@@ -3801,8 +3808,8 @@
       <c r="O21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
@@ -3811,20 +3818,20 @@
       <c r="B22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="26">
         <v>45504</v>
       </c>
@@ -3834,8 +3841,8 @@
       <c r="O22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
@@ -3844,20 +3851,20 @@
       <c r="B23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="26">
         <v>45504</v>
       </c>
@@ -3867,8 +3874,8 @@
       <c r="O23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
@@ -3877,20 +3884,20 @@
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="26">
         <v>45504</v>
       </c>
@@ -3900,8 +3907,8 @@
       <c r="O24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
@@ -3910,20 +3917,20 @@
       <c r="B25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="26">
         <v>45504</v>
       </c>
@@ -3933,8 +3940,8 @@
       <c r="O25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" ht="92" customHeight="1">
       <c r="A26" s="6">
@@ -3943,20 +3950,20 @@
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="26">
         <v>45504</v>
       </c>
@@ -3966,8 +3973,8 @@
       <c r="O26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" ht="89" customHeight="1">
       <c r="A27" s="6">
@@ -3976,20 +3983,20 @@
       <c r="B27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="26">
         <v>45504</v>
       </c>
@@ -3999,8 +4006,8 @@
       <c r="O27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
@@ -4009,20 +4016,20 @@
       <c r="B28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="26">
         <v>45504</v>
       </c>
@@ -4032,8 +4039,8 @@
       <c r="O28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
@@ -4042,20 +4049,20 @@
       <c r="B29" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="26">
         <v>45504</v>
       </c>
@@ -4065,8 +4072,8 @@
       <c r="O29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
@@ -4075,20 +4082,20 @@
       <c r="B30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="26">
         <v>45504</v>
       </c>
@@ -4098,8 +4105,8 @@
       <c r="O30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
@@ -4108,20 +4115,20 @@
       <c r="B31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="26">
         <v>45504</v>
       </c>
@@ -4131,8 +4138,8 @@
       <c r="O31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
@@ -4141,20 +4148,20 @@
       <c r="B32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="26">
         <v>45504</v>
       </c>
@@ -4164,8 +4171,8 @@
       <c r="O32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
@@ -4174,20 +4181,20 @@
       <c r="B33" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="26">
         <v>45504</v>
       </c>
@@ -4197,8 +4204,8 @@
       <c r="O33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="28"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
@@ -4207,20 +4214,20 @@
       <c r="B34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
       <c r="M34" s="26">
         <v>45504</v>
       </c>
@@ -4230,8 +4237,8 @@
       <c r="O34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="28"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
@@ -4240,20 +4247,20 @@
       <c r="B35" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
       <c r="M35" s="26">
         <v>45504</v>
       </c>
@@ -4263,8 +4270,8 @@
       <c r="O35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
@@ -4273,20 +4280,20 @@
       <c r="B36" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="26">
         <v>45504</v>
       </c>
@@ -4296,8 +4303,8 @@
       <c r="O36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
@@ -4306,20 +4313,20 @@
       <c r="B37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="26">
         <v>45504</v>
       </c>
@@ -4339,20 +4346,20 @@
       <c r="B38" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="26">
         <v>45504</v>
       </c>
@@ -4372,20 +4379,20 @@
       <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="26">
         <v>45504</v>
       </c>
@@ -4405,20 +4412,20 @@
       <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="30" t="s">
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="26">
         <v>45504</v>
       </c>
@@ -4428,8 +4435,8 @@
       <c r="O40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="28"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
@@ -4438,20 +4445,20 @@
       <c r="B41" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
       <c r="M41" s="26">
         <v>45504</v>
       </c>
@@ -4461,8 +4468,8 @@
       <c r="O41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
@@ -4471,20 +4478,20 @@
       <c r="B42" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="26">
         <v>45504</v>
       </c>
@@ -4494,8 +4501,8 @@
       <c r="O42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
@@ -4504,20 +4511,20 @@
       <c r="B43" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="26">
         <v>45504</v>
       </c>
@@ -4527,8 +4534,8 @@
       <c r="O43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
@@ -4537,20 +4544,20 @@
       <c r="B44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="26">
         <v>45504</v>
       </c>
@@ -4560,8 +4567,8 @@
       <c r="O44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="30"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
@@ -4570,20 +4577,20 @@
       <c r="B45" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="26">
         <v>45504</v>
       </c>
@@ -4593,8 +4600,8 @@
       <c r="O45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="28"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="30"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
@@ -4603,20 +4610,20 @@
       <c r="B46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="26">
         <v>45504</v>
       </c>
@@ -4626,8 +4633,8 @@
       <c r="O46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
@@ -4636,20 +4643,20 @@
       <c r="B47" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="33" t="s">
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="32"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="44"/>
       <c r="M47" s="26">
         <v>45504</v>
       </c>
@@ -4659,8 +4666,8 @@
       <c r="O47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="44"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
@@ -4669,20 +4676,20 @@
       <c r="B48" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="30" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="26">
         <v>45504</v>
       </c>
@@ -4692,8 +4699,8 @@
       <c r="O48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="44"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
@@ -4702,20 +4709,20 @@
       <c r="B49" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="30" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
       <c r="M49" s="26">
         <v>45504</v>
       </c>
@@ -4735,20 +4742,20 @@
       <c r="B50" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="30" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="26">
         <v>45504</v>
       </c>
@@ -4758,8 +4765,8 @@
       <c r="O50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="44"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
@@ -4768,20 +4775,20 @@
       <c r="B51" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="30" t="s">
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
       <c r="M51" s="26">
         <v>45504</v>
       </c>
@@ -4801,20 +4808,20 @@
       <c r="B52" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="30" t="s">
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="26">
         <v>45504</v>
       </c>
@@ -4834,20 +4841,20 @@
       <c r="B53" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30" t="s">
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
       <c r="M53" s="26">
         <v>45504</v>
       </c>
@@ -4857,8 +4864,8 @@
       <c r="O53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
@@ -4867,20 +4874,20 @@
       <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="30" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
       <c r="M54" s="26">
         <v>45504</v>
       </c>
@@ -4890,8 +4897,8 @@
       <c r="O54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
@@ -4900,20 +4907,20 @@
       <c r="B55" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30" t="s">
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="26">
         <v>45504</v>
       </c>
@@ -4923,8 +4930,8 @@
       <c r="O55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
@@ -4933,20 +4940,20 @@
       <c r="B56" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="30" t="s">
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
       <c r="M56" s="26">
         <v>45504</v>
       </c>
@@ -4956,8 +4963,8 @@
       <c r="O56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="28"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="30"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
@@ -4966,20 +4973,20 @@
       <c r="B57" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="30" t="s">
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
       <c r="M57" s="26">
         <v>45504</v>
       </c>
@@ -4999,20 +5006,20 @@
       <c r="B58" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="30" t="s">
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="26">
         <v>45504</v>
       </c>
@@ -5032,20 +5039,20 @@
       <c r="B59" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="30" t="s">
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
       <c r="M59" s="26">
         <v>45504</v>
       </c>
@@ -5065,20 +5072,20 @@
       <c r="B60" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="30" t="s">
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="26">
         <v>45504</v>
       </c>
@@ -5098,20 +5105,20 @@
       <c r="B61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="26">
         <v>45504</v>
       </c>
@@ -5121,30 +5128,30 @@
       <c r="O61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:17" ht="13.5" customHeight="1">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="29" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
       <c r="M62" s="26">
         <v>45504</v>
       </c>
@@ -5154,28 +5161,28 @@
       <c r="O62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="33" t="s">
+      <c r="B63" s="63"/>
+      <c r="C63" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="29" t="s">
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
       <c r="M63" s="26">
         <v>45504</v>
       </c>
@@ -5185,28 +5192,28 @@
       <c r="O63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="33" t="s">
+      <c r="B64" s="63"/>
+      <c r="C64" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="29" t="s">
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
       <c r="M64" s="26">
         <v>45504</v>
       </c>
@@ -5214,30 +5221,30 @@
         <v>132</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
+        <v>136</v>
+      </c>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="33" t="s">
+      <c r="B65" s="63"/>
+      <c r="C65" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="29" t="s">
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
       <c r="M65" s="26">
         <v>45504</v>
       </c>
@@ -5254,21 +5261,21 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="30" t="s">
+      <c r="B66" s="63"/>
+      <c r="C66" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
       <c r="M66" s="26">
         <v>45504</v>
       </c>
@@ -5278,28 +5285,28 @@
       <c r="O66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="30"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="30" t="s">
+      <c r="B67" s="63"/>
+      <c r="C67" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
       <c r="M67" s="26">
         <v>45504</v>
       </c>
@@ -5309,28 +5316,28 @@
       <c r="O67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="33" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="31" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="32"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="44"/>
       <c r="M68" s="26">
         <v>45504</v>
       </c>
@@ -5340,30 +5347,30 @@
       <c r="O68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="28"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="30"/>
     </row>
     <row r="69" spans="1:17" ht="69.5" customHeight="1">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
       <c r="M69" s="26">
         <v>45504</v>
       </c>
@@ -5373,28 +5380,28 @@
       <c r="O69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="28"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="30"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="33" t="s">
+      <c r="B70" s="63"/>
+      <c r="C70" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="30" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="26">
         <v>45504</v>
       </c>
@@ -5404,28 +5411,28 @@
       <c r="O70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="28"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="30"/>
     </row>
     <row r="71" spans="1:17" ht="91.5" customHeight="1">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="30" t="s">
+      <c r="B71" s="63"/>
+      <c r="C71" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="35"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="28"/>
       <c r="M71" s="26">
         <v>45504</v>
       </c>
@@ -5435,30 +5442,30 @@
       <c r="O71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P71" s="33" t="s">
+      <c r="P71" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="Q71" s="35"/>
+      <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="1:17" ht="90.5" customHeight="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="30" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="33" t="s">
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="35"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="28"/>
       <c r="M72" s="26">
         <v>45504</v>
       </c>
@@ -5468,10 +5475,10 @@
       <c r="O72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P72" s="33" t="s">
+      <c r="P72" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="Q72" s="35"/>
+      <c r="Q72" s="28"/>
     </row>
     <row r="73" spans="1:17" ht="11.25" customHeight="1">
       <c r="B73" s="4"/>
@@ -5503,6 +5510,163 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="P72:Q72"/>
     <mergeCell ref="P70:Q70"/>
@@ -5527,163 +5691,6 @@
     <mergeCell ref="H54:L54"/>
     <mergeCell ref="P54:Q54"/>
     <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP009商品修正(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13132A27-9F6D-4564-B215-C884365EC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB3E202-D147-4439-B107-A17D755AA33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -2283,22 +2283,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作です」と表示される</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>未実装</t>
     <rPh sb="0" eb="3">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2686,140 +2683,140 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3173,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B60" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70:L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3191,25 +3188,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3224,23 +3221,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3255,50 +3252,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32.5" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="37" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3307,20 +3304,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="24" t="s">
         <v>13</v>
       </c>
@@ -3330,32 +3327,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="34"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="26">
         <v>45503</v>
       </c>
@@ -3365,28 +3362,28 @@
       <c r="O6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="26">
         <v>45503</v>
       </c>
@@ -3396,28 +3393,28 @@
       <c r="O7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="26">
         <v>45503</v>
       </c>
@@ -3435,18 +3432,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="26">
         <v>45503</v>
       </c>
@@ -3464,18 +3461,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="26">
         <v>45503</v>
       </c>
@@ -3493,18 +3490,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="26">
         <v>45503</v>
       </c>
@@ -3522,18 +3519,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="26">
         <v>45503</v>
       </c>
@@ -3551,18 +3548,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="26">
         <v>45503</v>
       </c>
@@ -3580,20 +3577,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="26">
         <v>45503</v>
       </c>
@@ -3611,18 +3608,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="26">
         <v>45503</v>
       </c>
@@ -3640,18 +3637,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="26">
         <v>45503</v>
       </c>
@@ -3669,18 +3666,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="26">
         <v>45503</v>
       </c>
@@ -3703,13 +3700,13 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="44"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="26">
         <v>45503</v>
       </c>
@@ -3732,13 +3729,13 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="44"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="26">
         <v>45503</v>
       </c>
@@ -3761,13 +3758,13 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="44"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="26">
         <v>45503</v>
       </c>
@@ -3785,20 +3782,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="28"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="26">
         <v>45503</v>
       </c>
@@ -3808,8 +3805,8 @@
       <c r="O21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="85.5" customHeight="1">
       <c r="A22" s="6">
@@ -3818,20 +3815,20 @@
       <c r="B22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="35" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="26">
         <v>45504</v>
       </c>
@@ -3841,8 +3838,8 @@
       <c r="O22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="79" customHeight="1">
       <c r="A23" s="6">
@@ -3851,20 +3848,20 @@
       <c r="B23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="35" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="26">
         <v>45504</v>
       </c>
@@ -3874,8 +3871,8 @@
       <c r="O23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="79.5" customHeight="1">
       <c r="A24" s="6">
@@ -3884,20 +3881,20 @@
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="35" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="26">
         <v>45504</v>
       </c>
@@ -3907,8 +3904,8 @@
       <c r="O24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="79.5" customHeight="1">
       <c r="A25" s="6">
@@ -3917,20 +3914,20 @@
       <c r="B25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="35" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="26">
         <v>45504</v>
       </c>
@@ -3940,8 +3937,8 @@
       <c r="O25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="92" customHeight="1">
       <c r="A26" s="6">
@@ -3950,20 +3947,20 @@
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="35" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="26">
         <v>45504</v>
       </c>
@@ -3973,8 +3970,8 @@
       <c r="O26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="89" customHeight="1">
       <c r="A27" s="6">
@@ -3983,20 +3980,20 @@
       <c r="B27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="35" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="26">
         <v>45504</v>
       </c>
@@ -4006,8 +4003,8 @@
       <c r="O27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="79.5" customHeight="1">
       <c r="A28" s="6">
@@ -4016,20 +4013,20 @@
       <c r="B28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="35" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="26">
         <v>45504</v>
       </c>
@@ -4039,8 +4036,8 @@
       <c r="O28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="79.5" customHeight="1">
       <c r="A29" s="6">
@@ -4049,20 +4046,20 @@
       <c r="B29" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="35" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="26">
         <v>45504</v>
       </c>
@@ -4072,8 +4069,8 @@
       <c r="O29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="86" customHeight="1">
       <c r="A30" s="6">
@@ -4082,20 +4079,20 @@
       <c r="B30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="26">
         <v>45504</v>
       </c>
@@ -4105,8 +4102,8 @@
       <c r="O30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
     </row>
     <row r="31" spans="1:17" ht="83.5" customHeight="1">
       <c r="A31" s="6">
@@ -4115,20 +4112,20 @@
       <c r="B31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="26">
         <v>45504</v>
       </c>
@@ -4138,8 +4135,8 @@
       <c r="O31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
     </row>
     <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="6">
@@ -4148,20 +4145,20 @@
       <c r="B32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="26">
         <v>45504</v>
       </c>
@@ -4171,8 +4168,8 @@
       <c r="O32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
     </row>
     <row r="33" spans="1:17" ht="84.5" customHeight="1">
       <c r="A33" s="6">
@@ -4181,20 +4178,20 @@
       <c r="B33" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="26">
         <v>45504</v>
       </c>
@@ -4204,8 +4201,8 @@
       <c r="O33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="81" customHeight="1">
       <c r="A34" s="6">
@@ -4214,20 +4211,20 @@
       <c r="B34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="35" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="26">
         <v>45504</v>
       </c>
@@ -4237,8 +4234,8 @@
       <c r="O34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
@@ -4247,20 +4244,20 @@
       <c r="B35" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="35" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="26">
         <v>45504</v>
       </c>
@@ -4270,8 +4267,8 @@
       <c r="O35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="86" customHeight="1">
       <c r="A36" s="6">
@@ -4280,20 +4277,20 @@
       <c r="B36" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="35" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
       <c r="M36" s="26">
         <v>45504</v>
       </c>
@@ -4303,8 +4300,8 @@
       <c r="O36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
     </row>
     <row r="37" spans="1:17" ht="86" customHeight="1">
       <c r="A37" s="6">
@@ -4313,20 +4310,20 @@
       <c r="B37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="35" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
       <c r="M37" s="26">
         <v>45504</v>
       </c>
@@ -4346,20 +4343,20 @@
       <c r="B38" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="35" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="M38" s="26">
         <v>45504</v>
       </c>
@@ -4379,20 +4376,20 @@
       <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="35" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
       <c r="M39" s="26">
         <v>45504</v>
       </c>
@@ -4412,20 +4409,20 @@
       <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="35" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
       <c r="M40" s="26">
         <v>45504</v>
       </c>
@@ -4435,8 +4432,8 @@
       <c r="O40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:17" ht="81.5" customHeight="1">
       <c r="A41" s="6">
@@ -4445,20 +4442,20 @@
       <c r="B41" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="35" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="26">
         <v>45504</v>
       </c>
@@ -4468,8 +4465,8 @@
       <c r="O41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="1:17" ht="81.5" customHeight="1">
       <c r="A42" s="6">
@@ -4478,20 +4475,20 @@
       <c r="B42" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="35" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
       <c r="M42" s="26">
         <v>45504</v>
       </c>
@@ -4501,8 +4498,8 @@
       <c r="O42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="1:17" ht="81.5" customHeight="1">
       <c r="A43" s="6">
@@ -4511,20 +4508,20 @@
       <c r="B43" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="35" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
       <c r="M43" s="26">
         <v>45504</v>
       </c>
@@ -4534,8 +4531,8 @@
       <c r="O43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
     </row>
     <row r="44" spans="1:17" ht="81.5" customHeight="1">
       <c r="A44" s="6">
@@ -4544,20 +4541,20 @@
       <c r="B44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="35" t="s">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
       <c r="M44" s="26">
         <v>45504</v>
       </c>
@@ -4567,8 +4564,8 @@
       <c r="O44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
     </row>
     <row r="45" spans="1:17" ht="81.5" customHeight="1">
       <c r="A45" s="6">
@@ -4577,20 +4574,20 @@
       <c r="B45" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="35" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
       <c r="M45" s="26">
         <v>45504</v>
       </c>
@@ -4600,8 +4597,8 @@
       <c r="O45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="36"/>
     </row>
     <row r="46" spans="1:17" ht="83.5" customHeight="1">
       <c r="A46" s="6">
@@ -4610,20 +4607,20 @@
       <c r="B46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="35" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
       <c r="M46" s="26">
         <v>45504</v>
       </c>
@@ -4633,8 +4630,8 @@
       <c r="O46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
     </row>
     <row r="47" spans="1:17" ht="80.5" customHeight="1">
       <c r="A47" s="6">
@@ -4643,20 +4640,20 @@
       <c r="B47" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="27" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="44"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="26">
         <v>45504</v>
       </c>
@@ -4666,8 +4663,8 @@
       <c r="O47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="44"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="30"/>
     </row>
     <row r="48" spans="1:17" ht="81" customHeight="1">
       <c r="A48" s="6">
@@ -4676,20 +4673,20 @@
       <c r="B48" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="35" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
       <c r="M48" s="26">
         <v>45504</v>
       </c>
@@ -4699,8 +4696,8 @@
       <c r="O48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="44"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="30"/>
     </row>
     <row r="49" spans="1:17" ht="84.5" customHeight="1">
       <c r="A49" s="6">
@@ -4709,20 +4706,20 @@
       <c r="B49" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="35" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
       <c r="M49" s="26">
         <v>45504</v>
       </c>
@@ -4742,20 +4739,20 @@
       <c r="B50" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="35" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
       <c r="M50" s="26">
         <v>45504</v>
       </c>
@@ -4765,8 +4762,8 @@
       <c r="O50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="44"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="30"/>
     </row>
     <row r="51" spans="1:17" ht="78.5" customHeight="1">
       <c r="A51" s="6">
@@ -4775,20 +4772,20 @@
       <c r="B51" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="35" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
       <c r="M51" s="26">
         <v>45504</v>
       </c>
@@ -4808,20 +4805,20 @@
       <c r="B52" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="35" t="s">
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
       <c r="M52" s="26">
         <v>45504</v>
       </c>
@@ -4841,20 +4838,20 @@
       <c r="B53" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="35" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
       <c r="M53" s="26">
         <v>45504</v>
       </c>
@@ -4864,8 +4861,8 @@
       <c r="O53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
     </row>
     <row r="54" spans="1:17" ht="69" customHeight="1">
       <c r="A54" s="6">
@@ -4874,20 +4871,20 @@
       <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="35" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
       <c r="M54" s="26">
         <v>45504</v>
       </c>
@@ -4897,8 +4894,8 @@
       <c r="O54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
     </row>
     <row r="55" spans="1:17" ht="85" customHeight="1">
       <c r="A55" s="6">
@@ -4907,20 +4904,20 @@
       <c r="B55" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="35" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
       <c r="M55" s="26">
         <v>45504</v>
       </c>
@@ -4930,8 +4927,8 @@
       <c r="O55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
     </row>
     <row r="56" spans="1:17" ht="82.5" customHeight="1">
       <c r="A56" s="6">
@@ -4940,20 +4937,20 @@
       <c r="B56" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="35" t="s">
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
       <c r="M56" s="26">
         <v>45504</v>
       </c>
@@ -4963,8 +4960,8 @@
       <c r="O56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="30"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="36"/>
     </row>
     <row r="57" spans="1:17" ht="82.5" customHeight="1">
       <c r="A57" s="6">
@@ -4973,20 +4970,20 @@
       <c r="B57" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="35" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
       <c r="M57" s="26">
         <v>45504</v>
       </c>
@@ -5006,20 +5003,20 @@
       <c r="B58" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="35" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
       <c r="M58" s="26">
         <v>45504</v>
       </c>
@@ -5039,20 +5036,20 @@
       <c r="B59" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="35" t="s">
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
       <c r="M59" s="26">
         <v>45504</v>
       </c>
@@ -5072,20 +5069,20 @@
       <c r="B60" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="35" t="s">
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
       <c r="M60" s="26">
         <v>45504</v>
       </c>
@@ -5105,20 +5102,20 @@
       <c r="B61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="35" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
       <c r="M61" s="26">
         <v>45504</v>
       </c>
@@ -5128,30 +5125,30 @@
       <c r="O61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" spans="1:17" ht="13.5" customHeight="1">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="31" t="s">
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
       <c r="M62" s="26">
         <v>45504</v>
       </c>
@@ -5161,28 +5158,28 @@
       <c r="O62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="50"/>
+      <c r="C63" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="31" t="s">
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
       <c r="M63" s="26">
         <v>45504</v>
       </c>
@@ -5192,28 +5189,28 @@
       <c r="O63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="1:17" ht="13.5" customHeight="1">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="50"/>
+      <c r="C64" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="31" t="s">
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
       <c r="M64" s="26">
         <v>45504</v>
       </c>
@@ -5221,30 +5218,30 @@
         <v>132</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
+        <v>135</v>
+      </c>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
     </row>
     <row r="65" spans="1:17" ht="13.5" customHeight="1">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="31" t="s">
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
       <c r="M65" s="26">
         <v>45504</v>
       </c>
@@ -5261,21 +5258,21 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="35" t="s">
+      <c r="B66" s="50"/>
+      <c r="C66" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31" t="s">
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
       <c r="M66" s="26">
         <v>45504</v>
       </c>
@@ -5285,28 +5282,28 @@
       <c r="O66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="30"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="36"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="35" t="s">
+      <c r="B67" s="50"/>
+      <c r="C67" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
       <c r="M67" s="26">
         <v>45504</v>
       </c>
@@ -5316,28 +5313,28 @@
       <c r="O67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="51"/>
+      <c r="C68" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="43" t="s">
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="44"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="30"/>
       <c r="M68" s="26">
         <v>45504</v>
       </c>
@@ -5347,30 +5344,30 @@
       <c r="O68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="30"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="36"/>
     </row>
     <row r="69" spans="1:17" ht="69.5" customHeight="1">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
       <c r="M69" s="26">
         <v>45504</v>
       </c>
@@ -5380,28 +5377,28 @@
       <c r="O69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="30"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="36"/>
     </row>
     <row r="70" spans="1:17" ht="69.5" customHeight="1">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="63"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="50"/>
+      <c r="C70" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="35" t="s">
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
       <c r="M70" s="26">
         <v>45504</v>
       </c>
@@ -5411,28 +5408,28 @@
       <c r="O70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="30"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="36"/>
     </row>
     <row r="71" spans="1:17" ht="91.5" customHeight="1">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="35" t="s">
+      <c r="B71" s="50"/>
+      <c r="C71" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="27" t="s">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="28"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
       <c r="M71" s="26">
         <v>45504</v>
       </c>
@@ -5442,30 +5439,30 @@
       <c r="O71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P71" s="27" t="s">
+      <c r="P71" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="Q71" s="28"/>
+      <c r="Q71" s="33"/>
     </row>
     <row r="72" spans="1:17" ht="90.5" customHeight="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="35" t="s">
+      <c r="B72" s="51"/>
+      <c r="C72" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="27" t="s">
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="28"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
       <c r="M72" s="26">
         <v>45504</v>
       </c>
@@ -5475,10 +5472,10 @@
       <c r="O72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P72" s="27" t="s">
+      <c r="P72" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="Q72" s="28"/>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="11.25" customHeight="1">
       <c r="B73" s="4"/>
@@ -5510,163 +5507,6 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="P72:Q72"/>
     <mergeCell ref="P70:Q70"/>
@@ -5691,6 +5531,163 @@
     <mergeCell ref="H54:L54"/>
     <mergeCell ref="P54:Q54"/>
     <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="P41:Q41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
